--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39938212-A75C-B746-8988-5C2C7364970C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F904F2-5EF8-9742-BF95-B05EC0561C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-11660" windowWidth="27880" windowHeight="28300" activeTab="5" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="2850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="2851">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -8596,6 +8596,9 @@
   </si>
   <si>
     <t>Spirotrichea ordo incertae sedis</t>
+  </si>
+  <si>
+    <t>Johansenia</t>
   </si>
 </sst>
 </file>
@@ -21437,10 +21440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871028EA-29BA-7645-9610-061CA35FE0CC}">
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:B532"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A526" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B532" sqref="B532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25695,6 +25698,14 @@
       </c>
       <c r="B531" t="s">
         <v>2671</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B532" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -26021,7 +26032,7 @@
   <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8232283-8CAF-1C4F-BCB6-B0E8978227B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBBA111-AA81-7C4A-AA83-C8DF40573C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15860" yWindow="740" windowWidth="13540" windowHeight="18380" activeTab="6" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="7220" yWindow="740" windowWidth="22180" windowHeight="18380" activeTab="6" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5124" uniqueCount="2959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5126" uniqueCount="2958">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -8790,9 +8790,6 @@
     <t>Diphylleia rotans</t>
   </si>
   <si>
-    <t>Acanthosphaera</t>
-  </si>
-  <si>
     <t>resolved.taxa.name</t>
   </si>
   <si>
@@ -8865,9 +8862,6 @@
     <t>Ochrophyta</t>
   </si>
   <si>
-    <t>Cryptophyta</t>
-  </si>
-  <si>
     <t>Myzozoa</t>
   </si>
   <si>
@@ -8926,6 +8920,9 @@
   </si>
   <si>
     <t>Schizothrix lacustris (species in domain Eukaryota)</t>
+  </si>
+  <si>
+    <t>Acanthosphaera (genus in kingdom Archaeplastida)</t>
   </si>
 </sst>
 </file>
@@ -21687,8 +21684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}">
   <dimension ref="A1:B553"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E582" sqref="E582"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="A256" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23670,7 +23667,7 @@
         <v>2835</v>
       </c>
       <c r="B247" t="s">
-        <v>425</v>
+        <v>636</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -26532,10 +26529,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28048,6 +28045,14 @@
         <v>240</v>
       </c>
     </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>636</v>
+      </c>
+      <c r="B189" t="s">
+        <v>2930</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B189" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28059,7 +28064,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28071,10 +28076,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1" t="s">
         <v>2914</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2915</v>
       </c>
       <c r="C1" t="s">
         <v>2876</v>
@@ -28118,7 +28123,7 @@
         <v>707845</v>
       </c>
       <c r="D2" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E2" t="s">
         <v>2892</v>
@@ -28139,10 +28144,10 @@
         <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L2" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -28156,13 +28161,13 @@
         <v>4016649</v>
       </c>
       <c r="D3" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E3" t="s">
         <v>2893</v>
       </c>
       <c r="F3" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G3" t="s">
         <v>287</v>
@@ -28177,10 +28182,10 @@
         <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L3" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -28194,13 +28199,13 @@
         <v>5409388</v>
       </c>
       <c r="D4" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E4" t="s">
         <v>2894</v>
       </c>
       <c r="F4" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="G4" t="s">
         <v>2693</v>
@@ -28212,18 +28217,18 @@
         <v>97</v>
       </c>
       <c r="J4" t="s">
+        <v>2937</v>
+      </c>
+      <c r="K4" t="s">
         <v>2939</v>
       </c>
-      <c r="K4" t="s">
-        <v>2941</v>
-      </c>
       <c r="L4" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="B5" t="s">
         <v>2895</v>
@@ -28232,7 +28237,7 @@
         <v>5362912</v>
       </c>
       <c r="D5" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F5" t="s">
         <v>2895</v>
@@ -28250,10 +28255,10 @@
         <v>178</v>
       </c>
       <c r="K5" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L5" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -28261,16 +28266,16 @@
         <v>2886</v>
       </c>
       <c r="B6" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="C6">
         <v>427000</v>
       </c>
       <c r="D6" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="E6" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="F6" t="s">
         <v>2484</v>
@@ -28282,16 +28287,16 @@
         <v>2675</v>
       </c>
       <c r="I6" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="J6" t="s">
         <v>2754</v>
       </c>
       <c r="K6" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L6" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -28305,7 +28310,7 @@
         <v>312183</v>
       </c>
       <c r="D7" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F7" t="s">
         <v>2896</v>
@@ -28320,13 +28325,13 @@
         <v>211</v>
       </c>
       <c r="J7" t="s">
+        <v>2938</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L7" t="s">
         <v>2940</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -28340,31 +28345,31 @@
         <v>598957</v>
       </c>
       <c r="D8" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E8" t="s">
         <v>2897</v>
       </c>
       <c r="F8" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G8" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="H8" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="I8" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="J8" t="s">
+        <v>2938</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L8" t="s">
         <v>2940</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -28378,13 +28383,13 @@
         <v>150267</v>
       </c>
       <c r="D9" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E9" t="s">
         <v>497</v>
       </c>
       <c r="F9" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="G9" t="s">
         <v>2632</v>
@@ -28396,13 +28401,13 @@
         <v>211</v>
       </c>
       <c r="J9" t="s">
+        <v>2938</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L9" t="s">
         <v>2940</v>
-      </c>
-      <c r="K9" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L9" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -28416,7 +28421,7 @@
         <v>4735204</v>
       </c>
       <c r="D10" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F10" t="s">
         <v>2898</v>
@@ -28434,10 +28439,10 @@
         <v>178</v>
       </c>
       <c r="K10" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L10" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -28451,7 +28456,7 @@
         <v>307972</v>
       </c>
       <c r="D11" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F11" t="s">
         <v>2899</v>
@@ -28469,10 +28474,10 @@
         <v>178</v>
       </c>
       <c r="K11" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L11" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -28486,31 +28491,31 @@
         <v>4023445</v>
       </c>
       <c r="D12" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E12" t="s">
         <v>2901</v>
       </c>
       <c r="F12" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="G12" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="H12" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="I12" t="s">
         <v>97</v>
       </c>
       <c r="J12" t="s">
+        <v>2937</v>
+      </c>
+      <c r="K12" t="s">
         <v>2939</v>
       </c>
-      <c r="K12" t="s">
-        <v>2941</v>
-      </c>
       <c r="L12" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -28524,13 +28529,13 @@
         <v>2812112</v>
       </c>
       <c r="D13" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E13" t="s">
         <v>2902</v>
       </c>
       <c r="F13" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G13" t="s">
         <v>515</v>
@@ -28542,13 +28547,13 @@
         <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="K13" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L13" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -28562,13 +28567,13 @@
         <v>5376792</v>
       </c>
       <c r="D14" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E14" t="s">
         <v>2903</v>
       </c>
       <c r="F14" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G14" t="s">
         <v>287</v>
@@ -28583,15 +28588,15 @@
         <v>182</v>
       </c>
       <c r="K14" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L14" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="B15" t="s">
         <v>2904</v>
@@ -28600,13 +28605,13 @@
         <v>4016689</v>
       </c>
       <c r="D15" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E15" t="s">
         <v>2904</v>
       </c>
       <c r="F15" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G15" t="s">
         <v>287</v>
@@ -28621,15 +28626,15 @@
         <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L15" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="B16" t="s">
         <v>2909</v>
@@ -28638,7 +28643,7 @@
         <v>6388726</v>
       </c>
       <c r="D16" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E16" t="s">
         <v>2909</v>
@@ -28656,18 +28661,18 @@
         <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="K16" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L16" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="B17" t="s">
         <v>2905</v>
@@ -28676,7 +28681,7 @@
         <v>2818322</v>
       </c>
       <c r="D17" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E17" t="s">
         <v>2905</v>
@@ -28694,18 +28699,18 @@
         <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="K17" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L17" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="B18" t="s">
         <v>2906</v>
@@ -28714,13 +28719,13 @@
         <v>4016662</v>
       </c>
       <c r="D18" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E18" t="s">
         <v>2906</v>
       </c>
       <c r="F18" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G18" t="s">
         <v>287</v>
@@ -28735,10 +28740,10 @@
         <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L18" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -28752,13 +28757,13 @@
         <v>5153022</v>
       </c>
       <c r="D19" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E19" t="s">
         <v>2907</v>
       </c>
       <c r="F19" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="G19" t="s">
         <v>207</v>
@@ -28773,15 +28778,15 @@
         <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L19" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
       <c r="B20" t="s">
         <v>2908</v>
@@ -28790,7 +28795,7 @@
         <v>4016583</v>
       </c>
       <c r="D20" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E20" t="s">
         <v>2908</v>
@@ -28811,15 +28816,15 @@
         <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L20" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
       <c r="B21" t="s">
         <v>2338</v>
@@ -28828,13 +28833,13 @@
         <v>4016510</v>
       </c>
       <c r="D21" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E21" t="s">
         <v>2338</v>
       </c>
       <c r="F21" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="G21" t="s">
         <v>2582</v>
@@ -28846,13 +28851,13 @@
         <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="K21" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L21" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -28866,7 +28871,7 @@
         <v>25914</v>
       </c>
       <c r="D22" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F22" t="s">
         <v>418</v>
@@ -28878,21 +28883,21 @@
         <v>420</v>
       </c>
       <c r="I22" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="J22" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="K22" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="L22" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="B23" t="s">
         <v>2862</v>
@@ -28901,7 +28906,7 @@
         <v>7563454</v>
       </c>
       <c r="D23" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F23" t="s">
         <v>2862</v>
@@ -28919,15 +28924,15 @@
         <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L23" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="B24" t="s">
         <v>2862</v>
@@ -28936,7 +28941,7 @@
         <v>7563454</v>
       </c>
       <c r="D24" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F24" t="s">
         <v>2862</v>
@@ -28954,15 +28959,15 @@
         <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L24" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
       <c r="B25" t="s">
         <v>2910</v>
@@ -28971,7 +28976,7 @@
         <v>4016804</v>
       </c>
       <c r="D25" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E25" t="s">
         <v>2910</v>
@@ -28992,15 +28997,15 @@
         <v>182</v>
       </c>
       <c r="K25" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L25" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
       <c r="B26" t="s">
         <v>2911</v>
@@ -29009,7 +29014,7 @@
         <v>447081</v>
       </c>
       <c r="D26" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E26" t="s">
         <v>2911</v>
@@ -29030,10 +29035,10 @@
         <v>182</v>
       </c>
       <c r="K26" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="L26" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -29047,7 +29052,7 @@
         <v>606326</v>
       </c>
       <c r="D27" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E27" t="s">
         <v>2891</v>
@@ -29059,19 +29064,19 @@
         <v>636</v>
       </c>
       <c r="H27" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="I27" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="J27" t="s">
+        <v>2938</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L27" t="s">
         <v>2940</v>
-      </c>
-      <c r="K27" t="s">
-        <v>2945</v>
-      </c>
-      <c r="L27" t="s">
-        <v>2942</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -29085,19 +29090,19 @@
         <v>155852</v>
       </c>
       <c r="D28" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F28" t="s">
         <v>2900</v>
       </c>
       <c r="G28" t="s">
-        <v>425</v>
+        <v>636</v>
       </c>
       <c r="H28" t="s">
-        <v>2874</v>
+        <v>2930</v>
       </c>
       <c r="I28" t="s">
-        <v>351</v>
+        <v>2934</v>
       </c>
       <c r="J28" t="s">
         <v>2938</v>
@@ -29106,7 +29111,7 @@
         <v>2943</v>
       </c>
       <c r="L28" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -29114,16 +29119,16 @@
         <v>2832</v>
       </c>
       <c r="B29" t="s">
-        <v>2913</v>
+        <v>2957</v>
       </c>
       <c r="C29">
         <v>6001434</v>
       </c>
       <c r="D29" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="F29" t="s">
-        <v>2913</v>
+        <v>2957</v>
       </c>
       <c r="G29" t="s">
         <v>284</v>
@@ -29138,10 +29143,10 @@
         <v>178</v>
       </c>
       <c r="K29" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L29" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -29155,16 +29160,16 @@
         <v>6000826</v>
       </c>
       <c r="D30" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="E30" t="s">
         <v>826</v>
       </c>
       <c r="F30" t="s">
+        <v>2923</v>
+      </c>
+      <c r="G30" t="s">
         <v>2924</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2925</v>
       </c>
       <c r="H30" t="s">
         <v>99</v>
@@ -29176,10 +29181,10 @@
         <v>178</v>
       </c>
       <c r="K30" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L30" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBBA111-AA81-7C4A-AA83-C8DF40573C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6BDF3-331D-A744-960B-A9563109BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7220" yWindow="740" windowWidth="22180" windowHeight="18380" activeTab="6" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="9500" yWindow="740" windowWidth="19900" windowHeight="18380" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5126" uniqueCount="2958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5156" uniqueCount="2976">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -8923,6 +8923,60 @@
   </si>
   <si>
     <t>Acanthosphaera (genus in kingdom Archaeplastida)</t>
+  </si>
+  <si>
+    <t>Cyclotella k*SpecChar*tzingiana</t>
+  </si>
+  <si>
+    <t>Centrales spp. (5*SpecChar*20 *SpecChar*m)</t>
+  </si>
+  <si>
+    <t>Centrales spp. 5*SpecChar*20 *SpecChar*m</t>
+  </si>
+  <si>
+    <t>Chlorella minut*SpecChar*ssima</t>
+  </si>
+  <si>
+    <t>Cyclotella spp&gt;9*SpecChar*m /stephanodiscus minutulus &gt;7*SpecChar*m</t>
+  </si>
+  <si>
+    <t>Cysts of chrysophyceae (14*SpecChar*)</t>
+  </si>
+  <si>
+    <t>Cyst of chrysophyceaes n*SpecChar*2 (diam. 17,5*SpecChar*m)</t>
+  </si>
+  <si>
+    <t>Cysts of chrysophyceae (30*SpecChar*)</t>
+  </si>
+  <si>
+    <t>Pico chloro esfer*SpecChar**SpecChar*ide 1</t>
+  </si>
+  <si>
+    <t>Pico chloro esfer*SpecChar**SpecChar*ide 2</t>
+  </si>
+  <si>
+    <t>Pico cyano esf*SpecChar**SpecChar*rico 1</t>
+  </si>
+  <si>
+    <t>Pico ni esf*SpecChar**SpecChar*rico</t>
+  </si>
+  <si>
+    <t>Scenedesmus bijugus (turpin) k*SpecChar**SpecChar*tz</t>
+  </si>
+  <si>
+    <t>Cyst of chrysophyceae</t>
+  </si>
+  <si>
+    <t>Cyclotella kutzingiana</t>
+  </si>
+  <si>
+    <t>Stephanodiscus minutulus</t>
+  </si>
+  <si>
+    <t>Cyclotella spp&lt;9*SpecChar*m /stephanodiscus minutulus &lt;7*SpecChar*m</t>
+  </si>
+  <si>
+    <t>Cyst chrysophycee n*SpecChar*1</t>
   </si>
 </sst>
 </file>
@@ -9315,10 +9369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8595BD-503B-484E-A54B-56E3A4EBC765}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10421,6 +10475,126 @@
       </c>
       <c r="B137" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B144" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B148" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B149" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B151" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B152" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -28063,7 +28237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E5C4F8-1C01-BF42-B724-4F4BDD8AA479}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F6BDF3-331D-A744-960B-A9563109BD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08979F97-21EE-E24D-9026-FBEDEC5EC1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="740" windowWidth="19900" windowHeight="18380" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="not_genus" sheetId="55" r:id="rId5"/>
     <sheet name="order" sheetId="59" r:id="rId6"/>
     <sheet name="multi_updates" sheetId="60" r:id="rId7"/>
+    <sheet name="cleaned_groups" sheetId="61" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">cleaned_groups!$A$1:$A$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">family!$B$1:$B$554</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">multi_updates!$K$1:$K$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">order!$B$1:$B$189</definedName>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5156" uniqueCount="2976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="3393">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -8977,13 +8979,1264 @@
   </si>
   <si>
     <t>Cyst chrysophycee n*SpecChar*1</t>
+  </si>
+  <si>
+    <t>cleaned.taxa.name.gna</t>
+  </si>
+  <si>
+    <t>cleaned.source.gna</t>
+  </si>
+  <si>
+    <t>Cyclotella rhomboideo-elliptica</t>
+  </si>
+  <si>
+    <t>EOL</t>
+  </si>
+  <si>
+    <t>Cyclotella baicalensis</t>
+  </si>
+  <si>
+    <t>Cyclotella ornata</t>
+  </si>
+  <si>
+    <t>Cyclotella minuta</t>
+  </si>
+  <si>
+    <t>Urosolenia eriensis var. morsa</t>
+  </si>
+  <si>
+    <t>Urosolenia eriensis morsa</t>
+  </si>
+  <si>
+    <t>Cyclotella stylorum</t>
+  </si>
+  <si>
+    <t>small Cyclotella</t>
+  </si>
+  <si>
+    <t>Aulacoseira subartica</t>
+  </si>
+  <si>
+    <t>Aulacoseira subarctica</t>
+  </si>
+  <si>
+    <t>Stephanodiscus meyerii</t>
+  </si>
+  <si>
+    <t>Stephanodiscus meyeri</t>
+  </si>
+  <si>
+    <t>Aulacoseira baicalensis</t>
+  </si>
+  <si>
+    <t>Cyclostephanus dubius</t>
+  </si>
+  <si>
+    <t>Cyclostephanos dubius</t>
+  </si>
+  <si>
+    <t>Stephanodiscus neoastrea</t>
+  </si>
+  <si>
+    <t>Stephanodiscus neoastraea</t>
+  </si>
+  <si>
+    <t>Cyclostesphanos</t>
+  </si>
+  <si>
+    <t>Skeletonema cf. subsalsum</t>
+  </si>
+  <si>
+    <t>Skeletonema subsalsum</t>
+  </si>
+  <si>
+    <t>Pennales</t>
+  </si>
+  <si>
+    <t>Eunotia incisa</t>
+  </si>
+  <si>
+    <t>Desmidium laticeps var. quadrangulare</t>
+  </si>
+  <si>
+    <t>Desmidium laticeps quadrangulare</t>
+  </si>
+  <si>
+    <t>Staurastrum cf. chaetoceras</t>
+  </si>
+  <si>
+    <t>Staurastrum chaetoceras</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata f. curvata</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata curvata</t>
+  </si>
+  <si>
+    <t>Staurastrum cf. gracile</t>
+  </si>
+  <si>
+    <t>Staurastrum gracile</t>
+  </si>
+  <si>
+    <t>Surirella peisonis</t>
+  </si>
+  <si>
+    <t>Campylodiscus clypeus</t>
+  </si>
+  <si>
+    <t>Aulacoseira ambigua var. ambigua f. spiralis</t>
+  </si>
+  <si>
+    <t>Aulacoseira ambigua</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata var. granulata</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata granulata</t>
+  </si>
+  <si>
+    <t>Geminella</t>
+  </si>
+  <si>
+    <t>Catalogue of Life</t>
+  </si>
+  <si>
+    <t>Ulothrichales</t>
+  </si>
+  <si>
+    <t>Mesotaenium chlamydosporum</t>
+  </si>
+  <si>
+    <t>Epiphytic cyanobacteria</t>
+  </si>
+  <si>
+    <t>Rivularia</t>
+  </si>
+  <si>
+    <t>Benthic (epiphytic) desmids and filamentous green algae</t>
+  </si>
+  <si>
+    <t>benthic diatoms</t>
+  </si>
+  <si>
+    <t>Raphidiopsis/Cylindrospermopsis</t>
+  </si>
+  <si>
+    <t>Planktolyngbya circumcreta</t>
+  </si>
+  <si>
+    <t>Limnotrichoideae</t>
+  </si>
+  <si>
+    <t>Jaaginema quadripunctulatum</t>
+  </si>
+  <si>
+    <t>Limnothrix-Planktothrix agardhii</t>
+  </si>
+  <si>
+    <t>Limnothrix amphigranulata</t>
+  </si>
+  <si>
+    <t>Leptolynbgya cf. notata</t>
+  </si>
+  <si>
+    <t>Anabaena minutissima</t>
+  </si>
+  <si>
+    <t>Cylindrospermopsis catemaco</t>
+  </si>
+  <si>
+    <t>Cylindrospermopsis philippinensis</t>
+  </si>
+  <si>
+    <t>Cylindrospermopsis phillippinensis</t>
+  </si>
+  <si>
+    <t>Cylindrospermum cf. muscicola</t>
+  </si>
+  <si>
+    <t>Cylindrospermum muscicola</t>
+  </si>
+  <si>
+    <t>Synechococcus aff. nidulans</t>
+  </si>
+  <si>
+    <t>small chlorelloid cells</t>
+  </si>
+  <si>
+    <t>Carteria complanata</t>
+  </si>
+  <si>
+    <t>Carteria</t>
+  </si>
+  <si>
+    <t>Chlamydomonas depressa</t>
+  </si>
+  <si>
+    <t>Chlamydomonas microsphera</t>
+  </si>
+  <si>
+    <t>Chlamydomonas microsphaera</t>
+  </si>
+  <si>
+    <t>Chlamydomonas passiva</t>
+  </si>
+  <si>
+    <t>Chlamydomonas cf. muriella</t>
+  </si>
+  <si>
+    <t>Chlamydomonas muriella</t>
+  </si>
+  <si>
+    <t>Chloromonas minima</t>
+  </si>
+  <si>
+    <t>Chloromonas</t>
+  </si>
+  <si>
+    <t>Pedimonas</t>
+  </si>
+  <si>
+    <t>Pteromonas variabilis</t>
+  </si>
+  <si>
+    <t>Chlamydomonas planctogloea</t>
+  </si>
+  <si>
+    <t>Chlamydomonas sordida</t>
+  </si>
+  <si>
+    <t>Plagioselmis (Rhodomonas)</t>
+  </si>
+  <si>
+    <t>Monoraphidium cf. nanum</t>
+  </si>
+  <si>
+    <t>Monoraphidium nanum</t>
+  </si>
+  <si>
+    <t>Monoraphidium griffithiii</t>
+  </si>
+  <si>
+    <t>Monoraphidium griffithii</t>
+  </si>
+  <si>
+    <t>Monoraphidium pseudomirabile</t>
+  </si>
+  <si>
+    <t>Monoraphidium pseudomirabilis</t>
+  </si>
+  <si>
+    <t>Keryochlamys styriaca</t>
+  </si>
+  <si>
+    <t>Keriochlamys styriaca</t>
+  </si>
+  <si>
+    <t>Chlorella vulgaris var. autotrophica</t>
+  </si>
+  <si>
+    <t>Chlorella vulgaris autotrophica</t>
+  </si>
+  <si>
+    <t>Synechococcus elegans</t>
+  </si>
+  <si>
+    <t>small sized chrysoflagellates</t>
+  </si>
+  <si>
+    <t>Dynobrioncylindricum</t>
+  </si>
+  <si>
+    <t>Ochromonas cf. viridis</t>
+  </si>
+  <si>
+    <t>Ochromonas viridis</t>
+  </si>
+  <si>
+    <t>Cryptomonas cf. brasiliensis; Cryptomonas pyrenoidifera</t>
+  </si>
+  <si>
+    <t>aff. Teleaulax</t>
+  </si>
+  <si>
+    <t>Cryptomonas acuta</t>
+  </si>
+  <si>
+    <t>Cryptomonas reflexa Gymnodinium</t>
+  </si>
+  <si>
+    <t>Cryptomonas reflexa</t>
+  </si>
+  <si>
+    <t>Cryptomonas cf. marssonii</t>
+  </si>
+  <si>
+    <t>Cryptomonas marssonii</t>
+  </si>
+  <si>
+    <t>Colonial Chlorococcaleans (Botryococcus</t>
+  </si>
+  <si>
+    <t>Coenochlorys</t>
+  </si>
+  <si>
+    <t>Lobocystis planctonica var. mucosa</t>
+  </si>
+  <si>
+    <t>Lobocystis planctonica</t>
+  </si>
+  <si>
+    <t>Eremosphaera tanganyikae</t>
+  </si>
+  <si>
+    <t>Nephroclamys subsolitaria</t>
+  </si>
+  <si>
+    <t>Nephrochlamys subsolitaria</t>
+  </si>
+  <si>
+    <t>Willea wilhelmii</t>
+  </si>
+  <si>
+    <t>Willea vilhelmii</t>
+  </si>
+  <si>
+    <t>Oocytis borgei</t>
+  </si>
+  <si>
+    <t>Oocystis borgei</t>
+  </si>
+  <si>
+    <t>Eutetramorus fottiii</t>
+  </si>
+  <si>
+    <t>Eutetramorus fottii</t>
+  </si>
+  <si>
+    <t>Ketablepharis</t>
+  </si>
+  <si>
+    <t>Pediastrum biwae</t>
+  </si>
+  <si>
+    <t>Tetraedron tumidulum</t>
+  </si>
+  <si>
+    <t>Micratinium</t>
+  </si>
+  <si>
+    <t>Scenedesmus acuminatum</t>
+  </si>
+  <si>
+    <t>Scenedesmus acuminatus</t>
+  </si>
+  <si>
+    <t>Scenedesmus acuminatum var. bernardii</t>
+  </si>
+  <si>
+    <t>Scenedesmus acuminatus bernardii</t>
+  </si>
+  <si>
+    <t>Scenedesmus arcuatum</t>
+  </si>
+  <si>
+    <t>Scenedesmus arcuatus</t>
+  </si>
+  <si>
+    <t>Scenedesmus quadricauda var. parvus</t>
+  </si>
+  <si>
+    <t>Scenedesmus quadricauda parvus</t>
+  </si>
+  <si>
+    <t>Tetraedron gracilis</t>
+  </si>
+  <si>
+    <t>Tetraedron gracile</t>
+  </si>
+  <si>
+    <t>Tetraedron mediocris</t>
+  </si>
+  <si>
+    <t>Tetraedron victoriae</t>
+  </si>
+  <si>
+    <t>Oocystis marina</t>
+  </si>
+  <si>
+    <t>Goniochlorys mutica</t>
+  </si>
+  <si>
+    <t>Goniochloris mutica</t>
+  </si>
+  <si>
+    <t>Tetraedron trigonium</t>
+  </si>
+  <si>
+    <t>Ankistrodesmus/Monoraphidium</t>
+  </si>
+  <si>
+    <t>Gloeocapsa punctata</t>
+  </si>
+  <si>
+    <t>Anabaena cf. circinalis</t>
+  </si>
+  <si>
+    <t>Anabaena circinalis</t>
+  </si>
+  <si>
+    <t>Anabaena cf. scheremetievi</t>
+  </si>
+  <si>
+    <t>Anabaena scheremetievi</t>
+  </si>
+  <si>
+    <t>Anabaena cf. solitaria</t>
+  </si>
+  <si>
+    <t>Anabaena perturbata</t>
+  </si>
+  <si>
+    <t>Anabaena elenkinii</t>
+  </si>
+  <si>
+    <t>Anabaena tanganyikae</t>
+  </si>
+  <si>
+    <t>Anabaena tanganykae</t>
+  </si>
+  <si>
+    <t>Aphanizomenon cf. flos-aquae</t>
+  </si>
+  <si>
+    <t>Aphanizomenon flos-aquae</t>
+  </si>
+  <si>
+    <t>Anabaena cf. aphanizomenoides</t>
+  </si>
+  <si>
+    <t>Anabaena aphanizomendoides</t>
+  </si>
+  <si>
+    <t>Aphanizomenon aphanizomenoides</t>
+  </si>
+  <si>
+    <t>Anabaena group</t>
+  </si>
+  <si>
+    <t>Anabaena sphaerica</t>
+  </si>
+  <si>
+    <t>Ceratium-Snowella</t>
+  </si>
+  <si>
+    <t>Peridinium gatunense</t>
+  </si>
+  <si>
+    <t>Peridiniopsis durandi</t>
+  </si>
+  <si>
+    <t>Peridinium cf. cinctum</t>
+  </si>
+  <si>
+    <t>Peridinium cinctum</t>
+  </si>
+  <si>
+    <t>Coelomoron tropicalis</t>
+  </si>
+  <si>
+    <t>Coelomoron tropicale</t>
+  </si>
+  <si>
+    <t>Microcystis lamelliformis</t>
+  </si>
+  <si>
+    <t>Tabellaria flocculosa var. fenestrata</t>
+  </si>
+  <si>
+    <t>Isocystis pallida</t>
+  </si>
+  <si>
+    <t>Leptolyngbya tenue</t>
+  </si>
+  <si>
+    <t>Leptolyngbya antartica</t>
+  </si>
+  <si>
+    <t>Leptolyngbya antarctica</t>
+  </si>
+  <si>
+    <t>Chromatium</t>
+  </si>
+  <si>
+    <t>Pyrobotrys</t>
+  </si>
+  <si>
+    <t>Beggiatoa alba</t>
+  </si>
+  <si>
+    <t>Vacuolaria tropicalis</t>
+  </si>
+  <si>
+    <t>Trachelomonas sculpta</t>
+  </si>
+  <si>
+    <t>Trachelomonas hispida var. hispida</t>
+  </si>
+  <si>
+    <t>Trachelomonas hispida hispida</t>
+  </si>
+  <si>
+    <t>Trachelomonas reticollis</t>
+  </si>
+  <si>
+    <t>Trachelomonas recticollis</t>
+  </si>
+  <si>
+    <t>Dimorphococcus</t>
+  </si>
+  <si>
+    <t>Gonynostomum</t>
+  </si>
+  <si>
+    <t>Heterosigma cf. akashiwo</t>
+  </si>
+  <si>
+    <t>Heterosigma akashiwo</t>
+  </si>
+  <si>
+    <t>Romeria chlorina</t>
+  </si>
+  <si>
+    <t>Chlorella + Choricysits</t>
+  </si>
+  <si>
+    <t>Merismopedia cf. hyalina</t>
+  </si>
+  <si>
+    <t>Merismopedia hyalina</t>
+  </si>
+  <si>
+    <t>cf Mantellum sp.</t>
+  </si>
+  <si>
+    <t>Cylindrospermum Bourget03</t>
+  </si>
+  <si>
+    <t>Cell of Dinobryon</t>
+  </si>
+  <si>
+    <t>Centric (Cyclotella + Stephanodiscus)</t>
+  </si>
+  <si>
+    <t>Centric &lt;10µm</t>
+  </si>
+  <si>
+    <t>cf. Katodinium fongiforme</t>
+  </si>
+  <si>
+    <t>Geminella subtilissima</t>
+  </si>
+  <si>
+    <t>Stomatocyst FR1</t>
+  </si>
+  <si>
+    <t>Cyst 1 of Chrysophyceae</t>
+  </si>
+  <si>
+    <t>Oedogonium large cell Bourget03</t>
+  </si>
+  <si>
+    <t>Cyst Chrysophycee N°1</t>
+  </si>
+  <si>
+    <t>Centric &gt;10µm</t>
+  </si>
+  <si>
+    <t>Cyst 2 of Chrysophyceae</t>
+  </si>
+  <si>
+    <t>Cyst of Dinobryon</t>
+  </si>
+  <si>
+    <t>micro Chlorophyceae</t>
+  </si>
+  <si>
+    <t>Cysts of Chrysophyceae (14µ)</t>
+  </si>
+  <si>
+    <t>Staurastrum sp. Annecy 2004</t>
+  </si>
+  <si>
+    <t>Cyst of Chrysophyceaes N°2 (diam. 17,5µm)</t>
+  </si>
+  <si>
+    <t>Cyst of Ceratium hirundinella</t>
+  </si>
+  <si>
+    <t>Cysts of Chrysophyceae (30µ)</t>
+  </si>
+  <si>
+    <t>Actinastrum</t>
+  </si>
+  <si>
+    <t>Aphanocapsa/Aphanothece</t>
+  </si>
+  <si>
+    <t>Chromulina/Chrysococcus</t>
+  </si>
+  <si>
+    <t>Chrysophyceae/Xanthophyceae</t>
+  </si>
+  <si>
+    <t>Closterium/Closteriopsis</t>
+  </si>
+  <si>
+    <t>Coelomorom microcystoides/Eucapsis parallelepipedon</t>
+  </si>
+  <si>
+    <t>Coelomoron/Woronchinia 2</t>
+  </si>
+  <si>
+    <t>Coenocystis/Oocystis</t>
+  </si>
+  <si>
+    <t>Diatomococcus/Tetralitris</t>
+  </si>
+  <si>
+    <t>Dinobryon divergens Imhof</t>
+  </si>
+  <si>
+    <t>Dinobryon divergens</t>
+  </si>
+  <si>
+    <t>Dinobryon sertularia Ehr</t>
+  </si>
+  <si>
+    <t>Dinobryon sertularia</t>
+  </si>
+  <si>
+    <t>Dinoflagelado/Peridinium</t>
+  </si>
+  <si>
+    <t>Durinskia sp/Dinoflagelado</t>
+  </si>
+  <si>
+    <t>Elakatothrix americana Wille</t>
+  </si>
+  <si>
+    <t>Elakatothrix americana</t>
+  </si>
+  <si>
+    <t>Elakatothrix gelatinosa Wille</t>
+  </si>
+  <si>
+    <t>Elakatothrix gelatinosa</t>
+  </si>
+  <si>
+    <t>Elakatotrix americana X cel</t>
+  </si>
+  <si>
+    <t>Entomoneis alata (Ehr) Kutz</t>
+  </si>
+  <si>
+    <t>Entomoneis alata</t>
+  </si>
+  <si>
+    <t>Epithemia zebra (Ehr)Kutz</t>
+  </si>
+  <si>
+    <t>Epithemia zebra</t>
+  </si>
+  <si>
+    <t>Euglena clabata Skuja</t>
+  </si>
+  <si>
+    <t>Euglena clavata</t>
+  </si>
+  <si>
+    <t>Euglena oxyuris Schmarda</t>
+  </si>
+  <si>
+    <t>Euglena oxyuris</t>
+  </si>
+  <si>
+    <t>Euglena viridis Ehr</t>
+  </si>
+  <si>
+    <t>Euglena viridis</t>
+  </si>
+  <si>
+    <t>Eutetramorus fotti (Hind) Kom</t>
+  </si>
+  <si>
+    <t>Eutetramorus planctonicus Ehr</t>
+  </si>
+  <si>
+    <t>Eutetramorus planctonicus</t>
+  </si>
+  <si>
+    <t>Eutetramorus tetrasporus Kom</t>
+  </si>
+  <si>
+    <t>Eutetramorus tetrasporus</t>
+  </si>
+  <si>
+    <t>Fragilaria construens (Ehr) Grunow</t>
+  </si>
+  <si>
+    <t>Fragilaria/Synedra</t>
+  </si>
+  <si>
+    <t>Geminella/Binuclearia</t>
+  </si>
+  <si>
+    <t>Glaucospira laxissima/Spirulina</t>
+  </si>
+  <si>
+    <t>Gloeocystis gigas X ORG</t>
+  </si>
+  <si>
+    <t>Golenkinia/ Golenkiniopsis 1</t>
+  </si>
+  <si>
+    <t>Golenkinia/ Golenkiniopsis 2</t>
+  </si>
+  <si>
+    <t>Golenkinia/Golenkiniopsis sp3</t>
+  </si>
+  <si>
+    <t>Gomphonema clavatum Ehr</t>
+  </si>
+  <si>
+    <t>Gomphonema clavatum</t>
+  </si>
+  <si>
+    <t>Gomphosphaeria nageliana (Unger)Lemm</t>
+  </si>
+  <si>
+    <t>Gomphosphaeria naegeliana</t>
+  </si>
+  <si>
+    <t>Goniochloris mutica (ABraun) Fott</t>
+  </si>
+  <si>
+    <t>Gyrosigma obtusatum (Sulliv&amp; Wormley) Boyer</t>
+  </si>
+  <si>
+    <t>Gyrosigma obtusatum</t>
+  </si>
+  <si>
+    <t>Gyrosigma scalpoides (Rabh) Cleve</t>
+  </si>
+  <si>
+    <t>Gyrosigma scalproides</t>
+  </si>
+  <si>
+    <t>Hemiselmis simplex Butcher</t>
+  </si>
+  <si>
+    <t>Hemiselmis simplex</t>
+  </si>
+  <si>
+    <t>Kirchneriella irregularis (GMSmith) Kors</t>
+  </si>
+  <si>
+    <t>Kirchneriella irregularis</t>
+  </si>
+  <si>
+    <t>Lagerheimia subalsa Lemm</t>
+  </si>
+  <si>
+    <t>Lagerheimia wratislaviensis Schroeder</t>
+  </si>
+  <si>
+    <t>Lagerheimia wratislaviensis</t>
+  </si>
+  <si>
+    <t>Lagherimia subsalsa Lemm</t>
+  </si>
+  <si>
+    <t>Lepocinclis ovum (Ehr) Lemm</t>
+  </si>
+  <si>
+    <t>Lepocinclis ovum</t>
+  </si>
+  <si>
+    <t>Mallomonas akrokomos Ruttner</t>
+  </si>
+  <si>
+    <t>Mallomonas akrokomos</t>
+  </si>
+  <si>
+    <t>Melosira varians C Agardh</t>
+  </si>
+  <si>
+    <t>Melosira varians</t>
+  </si>
+  <si>
+    <t>Merismopedia  glauca (Ehr)</t>
+  </si>
+  <si>
+    <t>Merismopedia glauca</t>
+  </si>
+  <si>
+    <t>Merismopedia elegans A Braun</t>
+  </si>
+  <si>
+    <t>Merismopedia glauca (Ehr) Nageli</t>
+  </si>
+  <si>
+    <t>Merismopedia tenuissima Lemm</t>
+  </si>
+  <si>
+    <t>Merismopedia tenuissima</t>
+  </si>
+  <si>
+    <t>Micractinium pusillum Fres</t>
+  </si>
+  <si>
+    <t>Micractinium pusillum</t>
+  </si>
+  <si>
+    <t>Monoraphidium arcuatum (Kors) Hind</t>
+  </si>
+  <si>
+    <t>Monoraphidium circinale (Nyg) Nyg</t>
+  </si>
+  <si>
+    <t>Monoraphidium circinale</t>
+  </si>
+  <si>
+    <t>Monoraphidium contortum (Thur) Kom  Legn</t>
+  </si>
+  <si>
+    <t>Monoraphidium minutum Kom Legn</t>
+  </si>
+  <si>
+    <t>Monoraphidium minutum</t>
+  </si>
+  <si>
+    <t>Monoraphidium tortile (West &amp; West) Kom Legn</t>
+  </si>
+  <si>
+    <t>Monoraphidium tortile</t>
+  </si>
+  <si>
+    <t>Nephrocytium agardhianum Nag</t>
+  </si>
+  <si>
+    <t>Nephrocytium agardhianum</t>
+  </si>
+  <si>
+    <t>Nephroselmis angulata (Kors) Skuja</t>
+  </si>
+  <si>
+    <t>Nephroselmis angulata</t>
+  </si>
+  <si>
+    <t>Nephroselmis minuta (NCarter) H P</t>
+  </si>
+  <si>
+    <t>Nephroselmis minuta</t>
+  </si>
+  <si>
+    <t>Nitzschia acicularis WSmith</t>
+  </si>
+  <si>
+    <t>Nitzschia acicularis</t>
+  </si>
+  <si>
+    <t>Nitzschia fonticola Grun</t>
+  </si>
+  <si>
+    <t>Nitzschia fonticola</t>
+  </si>
+  <si>
+    <t>Nitzschia reversa WSmith</t>
+  </si>
+  <si>
+    <t>Nitzschia reversa</t>
+  </si>
+  <si>
+    <t>Nitzschia sigmoidea (Nizsch)W Smith</t>
+  </si>
+  <si>
+    <t>Nitzschia sigmoidea</t>
+  </si>
+  <si>
+    <t>Nitzschia solita Hust</t>
+  </si>
+  <si>
+    <t>Nitzschia solita</t>
+  </si>
+  <si>
+    <t>Nodularia spumigena Mert</t>
+  </si>
+  <si>
+    <t>Nodularia spumigena</t>
+  </si>
+  <si>
+    <t>Nodularia spumigena Mertens ex Bornet et Flahault</t>
+  </si>
+  <si>
+    <t>Oocystis lacustris Chod</t>
+  </si>
+  <si>
+    <t>Oocystis lacustris</t>
+  </si>
+  <si>
+    <t>Oocystis marsonii Lemm</t>
+  </si>
+  <si>
+    <t>Oocystis marssonii</t>
+  </si>
+  <si>
+    <t>Oocystis natans (Lemm) Playf</t>
+  </si>
+  <si>
+    <t>Oocystis natans</t>
+  </si>
+  <si>
+    <t>Oocystis parva WWest &amp; GSWest</t>
+  </si>
+  <si>
+    <t>Oocystis parva</t>
+  </si>
+  <si>
+    <t>Oocystis submarina Lagerh</t>
+  </si>
+  <si>
+    <t>Oocystis submarina</t>
+  </si>
+  <si>
+    <t>Oscillatoria curviceps Agard</t>
+  </si>
+  <si>
+    <t>Oscillatoria curviceps</t>
+  </si>
+  <si>
+    <t>Pediastrum duplex Meyen</t>
+  </si>
+  <si>
+    <t>Pediastrum duplex</t>
+  </si>
+  <si>
+    <t>Pediastrum tetras (Ehrenb)Ralfs</t>
+  </si>
+  <si>
+    <t>Pediastrum tetras</t>
+  </si>
+  <si>
+    <t>Peridiniopsis borgei Lemm</t>
+  </si>
+  <si>
+    <t>Peridiniopsis borgei</t>
+  </si>
+  <si>
+    <t>Peridinium willei Huif Kass</t>
+  </si>
+  <si>
+    <t>Peridinium willei</t>
+  </si>
+  <si>
+    <t>Peridinium/Gyrodinium</t>
+  </si>
+  <si>
+    <t>Phacotus minusculus Bourr</t>
+  </si>
+  <si>
+    <t>Phacotus minusculus</t>
+  </si>
+  <si>
+    <t>Phacus acuminatus Stokes</t>
+  </si>
+  <si>
+    <t>Phacus acuminatus</t>
+  </si>
+  <si>
+    <t>Phacus brevicaudatus (Klebs) Lemm</t>
+  </si>
+  <si>
+    <t>Phacus brevicaudatus</t>
+  </si>
+  <si>
+    <t>Phacus curvicauda Swir</t>
+  </si>
+  <si>
+    <t>Phacus curvicauda</t>
+  </si>
+  <si>
+    <t>Phacus longicauda (Ehr) Duj</t>
+  </si>
+  <si>
+    <t>Phacus longicauda</t>
+  </si>
+  <si>
+    <t>Phacus triqueter (Ehr) Duj</t>
+  </si>
+  <si>
+    <t>Phacus triqueter</t>
+  </si>
+  <si>
+    <t>Pico Chloro flagelado 1</t>
+  </si>
+  <si>
+    <t>Pico Chloro gota</t>
+  </si>
+  <si>
+    <t>Pico Chryso 2</t>
+  </si>
+  <si>
+    <t>Pico Chryso 3</t>
+  </si>
+  <si>
+    <t>Pico Chryso 4</t>
+  </si>
+  <si>
+    <t>Pico Chryso fla 1</t>
+  </si>
+  <si>
+    <t>Pico cyano (&lt;1um)</t>
+  </si>
+  <si>
+    <t>Pica cyana</t>
+  </si>
+  <si>
+    <t>Pico NI esferoide</t>
+  </si>
+  <si>
+    <t>Pico NI flagelado 1</t>
+  </si>
+  <si>
+    <t>Pinnularia major Rabh</t>
+  </si>
+  <si>
+    <t>Pinnularia major</t>
+  </si>
+  <si>
+    <t>Plagioselmis lacustris (Pasch &amp; Rutt) Javor</t>
+  </si>
+  <si>
+    <t>Plagioselmis lacustris</t>
+  </si>
+  <si>
+    <t>Planktothrix agardhii Gom</t>
+  </si>
+  <si>
+    <t>Planktothrix agardhii</t>
+  </si>
+  <si>
+    <t>Pseudanabaena catenata Lauterborn</t>
+  </si>
+  <si>
+    <t>Pseudodictyosphaerium Jurisii</t>
+  </si>
+  <si>
+    <t>Pseudodictyosphaerium</t>
+  </si>
+  <si>
+    <t>Pseudokephyrion spirale Gerl Schmidt</t>
+  </si>
+  <si>
+    <t>Pseudokephyrion spirale</t>
+  </si>
+  <si>
+    <t>Pteromonas limnetica Hort</t>
+  </si>
+  <si>
+    <t>Pteromonas limnetica</t>
+  </si>
+  <si>
+    <t>Pteromonas sp Rara</t>
+  </si>
+  <si>
+    <t>Pteromonas</t>
+  </si>
+  <si>
+    <t>Pyramimonas minima Pasch</t>
+  </si>
+  <si>
+    <t>Pyramimonas minima</t>
+  </si>
+  <si>
+    <t>Quadrigula closterioides (Bohl) Printz</t>
+  </si>
+  <si>
+    <t>Quadrigula closterioides</t>
+  </si>
+  <si>
+    <t>Quadrigula quaternata (W&amp;GS West) Printz</t>
+  </si>
+  <si>
+    <t>Quadrigula quaternata</t>
+  </si>
+  <si>
+    <t>Rhodomonas minuta Skuja</t>
+  </si>
+  <si>
+    <t>Rhodomonas minuta</t>
+  </si>
+  <si>
+    <t>Scenedesmums linearis Kom</t>
+  </si>
+  <si>
+    <t>Scenedesmus linearis</t>
+  </si>
+  <si>
+    <t>Scenedesmus bicaudatus Dedus</t>
+  </si>
+  <si>
+    <t>Scenedesmus bicaudatus</t>
+  </si>
+  <si>
+    <t>Scenedesmus ecornis (Ehr) Chod</t>
+  </si>
+  <si>
+    <t>Scenedesmus ecornis</t>
+  </si>
+  <si>
+    <t>Scenedesmus intermedius Chod</t>
+  </si>
+  <si>
+    <t>Skeletonema potamos (Weber) Hasle</t>
+  </si>
+  <si>
+    <t>Skeletonema potamos</t>
+  </si>
+  <si>
+    <t>Skeletonema subsalsum (Cleve Euler) Bethge</t>
+  </si>
+  <si>
+    <t>Spermatozopsis exsultans Kors</t>
+  </si>
+  <si>
+    <t>Spermatozopsis exsultans</t>
+  </si>
+  <si>
+    <t>Sphaerocavum/Mpanniformis (isolada)</t>
+  </si>
+  <si>
+    <t>Sphaerocystis cf schroeteri X ORG</t>
+  </si>
+  <si>
+    <t>Sphaerocystis schoeteri Chod</t>
+  </si>
+  <si>
+    <t>Staurastrum gracile Ralfs</t>
+  </si>
+  <si>
+    <t>Staurastrum leptocladum Nordst</t>
+  </si>
+  <si>
+    <t>Staurastrum leptocladum</t>
+  </si>
+  <si>
+    <t>Staurastrum paradoxum Meyen</t>
+  </si>
+  <si>
+    <t>Staurastrum paradoxum</t>
+  </si>
+  <si>
+    <t>Staurastrum quadricauda (Turp) Breb</t>
+  </si>
+  <si>
+    <t>Staurastrum rotula Nordst</t>
+  </si>
+  <si>
+    <t>Staurastrum rotula</t>
+  </si>
+  <si>
+    <t>Staurastrum sebaldi var ornatum Nordst</t>
+  </si>
+  <si>
+    <t>Staurastrum sebaldi ornatum</t>
+  </si>
+  <si>
+    <t>Strombomonas fluviatilis (Lemm) Defl</t>
+  </si>
+  <si>
+    <t>Strombomonas fluviatilis</t>
+  </si>
+  <si>
+    <t>Strombomonas scabra (Playf) Tell &amp; Conf</t>
+  </si>
+  <si>
+    <t>Strombomonas scabra</t>
+  </si>
+  <si>
+    <t>Synedra acus Kuetz</t>
+  </si>
+  <si>
+    <t>Synedra acus</t>
+  </si>
+  <si>
+    <t>Synedra ulna (Nitzsch) Ehr</t>
+  </si>
+  <si>
+    <t>Synedra ulna</t>
+  </si>
+  <si>
+    <t>Tetraedron minimun (A Br) Hansg</t>
+  </si>
+  <si>
+    <t>Tetraedron</t>
+  </si>
+  <si>
+    <t>Tetrastrum glabrum (Roll) Ahlstrom &amp; Tiffany</t>
+  </si>
+  <si>
+    <t>Tetrastrum glabrum</t>
+  </si>
+  <si>
+    <t>Tetrastrum staurogeniaeforme (Schroed) Lemm</t>
+  </si>
+  <si>
+    <t>Tetrastrum staurogeniaeforme</t>
+  </si>
+  <si>
+    <t>Trachelomonas rugulosa Stein</t>
+  </si>
+  <si>
+    <t>Trachelomonas rugulosa</t>
+  </si>
+  <si>
+    <t>Trachelomonas volvocina Ehr</t>
+  </si>
+  <si>
+    <t>Trachelomonas volvocina</t>
+  </si>
+  <si>
+    <t>Trachelomonas volvocina Ehr var volvocina Ehr</t>
+  </si>
+  <si>
+    <t>Trachelomonas volvocina volvocina</t>
+  </si>
+  <si>
+    <t>TrybionelLa vitoriae</t>
+  </si>
+  <si>
+    <t>Urosolenia eriensis Smith</t>
+  </si>
+  <si>
+    <t>Urosolenia eriensis</t>
+  </si>
+  <si>
+    <t>Urosolenia longiseta Zacharias</t>
+  </si>
+  <si>
+    <t>Urosolenia longiseta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9009,6 +10262,19 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9030,11 +10296,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9371,8 +10639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8595BD-503B-484E-A54B-56E3A4EBC765}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView topLeftCell="A143" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10607,8 +11875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286B08F2-9C4E-3A43-A7E5-D98B8AC33438}">
   <dimension ref="A1:C665"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14011,7 +15279,7 @@
         <v>1534</v>
       </c>
       <c r="B309" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C309" t="s">
         <v>9</v>
@@ -14022,7 +15290,7 @@
         <v>1535</v>
       </c>
       <c r="B310" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C310" t="s">
         <v>9</v>
@@ -14033,7 +15301,7 @@
         <v>1536</v>
       </c>
       <c r="B311" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C311" t="s">
         <v>9</v>
@@ -14044,7 +15312,7 @@
         <v>1537</v>
       </c>
       <c r="B312" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
@@ -14055,7 +15323,7 @@
         <v>1538</v>
       </c>
       <c r="B313" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C313" t="s">
         <v>9</v>
@@ -14066,7 +15334,7 @@
         <v>1539</v>
       </c>
       <c r="B314" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
@@ -14077,7 +15345,7 @@
         <v>1540</v>
       </c>
       <c r="B315" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C315" t="s">
         <v>9</v>
@@ -14088,7 +15356,7 @@
         <v>1541</v>
       </c>
       <c r="B316" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C316" t="s">
         <v>9</v>
@@ -14099,7 +15367,7 @@
         <v>1542</v>
       </c>
       <c r="B317" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
@@ -14110,7 +15378,7 @@
         <v>1543</v>
       </c>
       <c r="B318" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C318" t="s">
         <v>9</v>
@@ -14121,7 +15389,7 @@
         <v>1544</v>
       </c>
       <c r="B319" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C319" t="s">
         <v>9</v>
@@ -14132,7 +15400,7 @@
         <v>1545</v>
       </c>
       <c r="B320" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C320" t="s">
         <v>9</v>
@@ -14143,7 +15411,7 @@
         <v>1546</v>
       </c>
       <c r="B321" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C321" t="s">
         <v>9</v>
@@ -14154,7 +15422,7 @@
         <v>1547</v>
       </c>
       <c r="B322" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C322" t="s">
         <v>9</v>
@@ -17608,7 +18876,7 @@
         <v>1409</v>
       </c>
       <c r="B636" t="s">
-        <v>83</v>
+        <v>2999</v>
       </c>
       <c r="C636" t="s">
         <v>9</v>
@@ -26300,10 +27568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716ADC0-6E42-9D4D-83DC-88C472B153C8}">
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26694,6 +27962,11 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2999</v>
       </c>
     </row>
   </sheetData>
@@ -29365,4 +30638,2939 @@
   <autoFilter ref="K1:K30" xr:uid="{C5E5C4F8-1C01-BF42-B724-4F4BDD8AA479}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F58C34-D174-0941-8CA4-E78200493E15}">
+  <dimension ref="A1:C290"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3040</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3042</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>2568</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>3093</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>3138</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="5"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="5"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="5"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="5"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>3192</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>3203</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>3087</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="4" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="4" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="4" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="4" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="4" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="4" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="4" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="4" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="4" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="4" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>3234</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>3243</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>3249</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="4" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>3255</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>3257</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>3259</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>3261</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>3263</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>3265</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>3267</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>3269</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="4" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>3288</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>3292</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>3296</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="4" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>3301</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="4" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="4" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>3309</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="4" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="4" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="4" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>3317</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>3321</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>3325</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>3328</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>3332</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>3334</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>3336</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="4" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>3354</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="4" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="4" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="4" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="4" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="4" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="4" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="4" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>3365</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>3367</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="4" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="4" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="4" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="4" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>3375</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="4" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>3377</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>3381</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>3383</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B289" s="5" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>3392</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A290" xr:uid="{F8F58C34-D174-0941-8CA4-E78200493E15}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08979F97-21EE-E24D-9026-FBEDEC5EC1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C754CA-9553-4F43-8C02-0B6A93F903F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="4" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="36860" yWindow="-6140" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="3393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="3394">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -10230,6 +10230,9 @@
   </si>
   <si>
     <t>Urosolenia longiseta</t>
+  </si>
+  <si>
+    <t>Eustigmatales</t>
   </si>
 </sst>
 </file>
@@ -23126,8 +23129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}">
   <dimension ref="A1:B553"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24573,7 +24576,7 @@
         <v>762</v>
       </c>
       <c r="B180" t="s">
-        <v>446</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -27570,7 +27573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716ADC0-6E42-9D4D-83DC-88C472B153C8}">
   <dimension ref="A1:A78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
@@ -27978,8 +27981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}">
   <dimension ref="A1:B189"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29369,7 +29372,7 @@
         <v>446</v>
       </c>
       <c r="B173" t="s">
-        <v>420</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C754CA-9553-4F43-8C02-0B6A93F903F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F723D17-5F81-0B4C-BD38-B69EE78F1780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36860" yWindow="-6140" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="36860" yWindow="-6140" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="3394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5891" uniqueCount="3395">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -10233,6 +10233,9 @@
   </si>
   <si>
     <t>Eustigmatales</t>
+  </si>
+  <si>
+    <t>Goniochloridales</t>
   </si>
 </sst>
 </file>
@@ -23129,8 +23132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}">
   <dimension ref="A1:B553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C179" sqref="C179"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23896,7 +23899,7 @@
         <v>389</v>
       </c>
       <c r="B95" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -27979,10 +27982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29501,6 +29504,14 @@
       </c>
       <c r="B189" t="s">
         <v>2930</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+      <c r="B190" t="s">
+        <v>3394</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F723D17-5F81-0B4C-BD38-B69EE78F1780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9825C3F-D73B-544F-9A68-9F742A08288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36860" yWindow="-6140" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="6" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5891" uniqueCount="3395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="3401">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -10236,6 +10236,24 @@
   </si>
   <si>
     <t>Goniochloridales</t>
+  </si>
+  <si>
+    <t>Gyromitus (genus in subkingdom SAR)</t>
+  </si>
+  <si>
+    <t>Pyramimonadales</t>
+  </si>
+  <si>
+    <t>Pyramimonadophyceae</t>
+  </si>
+  <si>
+    <t>Sphaerastrum fockii</t>
+  </si>
+  <si>
+    <t>Sorastrum</t>
+  </si>
+  <si>
+    <t>Hydrodictyaceae</t>
   </si>
 </sst>
 </file>
@@ -27984,7 +28002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}">
   <dimension ref="A1:B190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
@@ -29522,10 +29540,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E5C4F8-1C01-BF42-B724-4F4BDD8AA479}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30645,6 +30663,76 @@
         <v>2941</v>
       </c>
       <c r="L30" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C31">
+        <v>5653993</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G31" t="s">
+        <v>616</v>
+      </c>
+      <c r="H31" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3397</v>
+      </c>
+      <c r="J31" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C32">
+        <v>251731</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3399</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3400</v>
+      </c>
+      <c r="H32" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>178</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L32" t="s">
         <v>2940</v>
       </c>
     </row>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9825C3F-D73B-544F-9A68-9F742A08288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF90259B-3907-D147-9D8B-1C78F074CDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" activeTab="6" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
     <sheet name="cleaned" sheetId="47" r:id="rId2"/>
     <sheet name="resolve" sheetId="57" r:id="rId3"/>
     <sheet name="family" sheetId="58" r:id="rId4"/>
-    <sheet name="not_genus" sheetId="55" r:id="rId5"/>
-    <sheet name="order" sheetId="59" r:id="rId6"/>
-    <sheet name="multi_updates" sheetId="60" r:id="rId7"/>
-    <sheet name="cleaned_groups" sheetId="61" r:id="rId8"/>
+    <sheet name="order" sheetId="59" r:id="rId5"/>
+    <sheet name="not_genus" sheetId="55" r:id="rId6"/>
+    <sheet name="non_plankton_multi_check" sheetId="62" r:id="rId7"/>
+    <sheet name="multi_updates" sheetId="60" r:id="rId8"/>
+    <sheet name="cleaned_groups" sheetId="61" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">cleaned_groups!$A$1:$A$290</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">cleaned_groups!$A$1:$A$290</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">family!$B$1:$B$554</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">multi_updates!$K$1:$K$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">order!$B$1:$B$189</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">multi_updates!$K$1:$K$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">order!$B$1:$B$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">resolve!$B$1:$B$487</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">special_characters!$B$1:$B$137</definedName>
   </definedNames>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5911" uniqueCount="3401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="3410">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -10254,6 +10255,33 @@
   </si>
   <si>
     <t>Hydrodictyaceae</t>
+  </si>
+  <si>
+    <t>Pseudophormidium ssp</t>
+  </si>
+  <si>
+    <t>diacyclops bicuspidatus odessanus</t>
+  </si>
+  <si>
+    <t>Diacyclops odessanus</t>
+  </si>
+  <si>
+    <t>Sphaerellopsis</t>
+  </si>
+  <si>
+    <t>Vitreochlamys</t>
+  </si>
+  <si>
+    <t>Brachionus (genus in Opisthokonta)</t>
+  </si>
+  <si>
+    <t>Monogononta</t>
+  </si>
+  <si>
+    <t>Animalia</t>
+  </si>
+  <si>
+    <t>Gastropidae</t>
   </si>
 </sst>
 </file>
@@ -10663,7 +10691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8595BD-503B-484E-A54B-56E3A4EBC765}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
@@ -11897,10 +11925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286B08F2-9C4E-3A43-A7E5-D98B8AC33438}">
-  <dimension ref="A1:C665"/>
+  <dimension ref="A1:C666"/>
   <sheetViews>
-    <sheetView topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316"/>
+    <sheetView topLeftCell="A651" workbookViewId="0">
+      <selection activeCell="B672" sqref="B672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19225,6 +19253,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B666" t="s">
+        <v>2544</v>
+      </c>
+      <c r="C666" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19232,10 +19271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CDAB4C-F5FA-4849-9657-ED9D68F63DEF}">
-  <dimension ref="A1:B487"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="D478" sqref="D478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23138,6 +23177,14 @@
       </c>
       <c r="B487" t="s">
         <v>1693</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B488" t="s">
+        <v>3403</v>
       </c>
     </row>
   </sheetData>
@@ -27591,414 +27638,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716ADC0-6E42-9D4D-83DC-88C472B153C8}">
-  <dimension ref="A1:A78"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>2752</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>2753</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>2759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>2836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>2837</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>2838</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>2839</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>2840</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>2841</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>2842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>2843</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>2844</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>2845</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>2846</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}">
   <dimension ref="A1:B190"/>
   <sheetViews>
@@ -29538,12 +29177,551 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716ADC0-6E42-9D4D-83DC-88C472B153C8}">
+  <dimension ref="A1:A79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAECDCE5-0B93-5046-8672-FD134107A566}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C2">
+        <v>28980</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3404</v>
+      </c>
+      <c r="G2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3">
+        <v>836111</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2861</v>
+      </c>
+      <c r="G3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E5C4F8-1C01-BF42-B724-4F4BDD8AA479}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30736,17 +30914,51 @@
         <v>2940</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3406</v>
+      </c>
+      <c r="C33">
+        <v>471702</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G33" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" t="s">
+        <v>220</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3407</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3408</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2940</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="K1:K30" xr:uid="{C5E5C4F8-1C01-BF42-B724-4F4BDD8AA479}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F58C34-D174-0941-8CA4-E78200493E15}">
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF90259B-3907-D147-9D8B-1C78F074CDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DAD1D-CE8E-564D-AD86-A7E23D40FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
@@ -29182,7 +29182,7 @@
   <dimension ref="A1:A79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10DAD1D-CE8E-564D-AD86-A7E23D40FCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BB167-B32F-1044-91BB-75937F78F022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="5" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="12480" yWindow="740" windowWidth="16920" windowHeight="18380" activeTab="4" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">cleaned_groups!$A$1:$A$290</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">family!$B$1:$B$554</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">family!$A$1:$A$553</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">multi_updates!$K$1:$K$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">order!$B$1:$B$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">resolve!$B$1:$B$487</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5959" uniqueCount="3410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5963" uniqueCount="3410">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -23195,10 +23195,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}">
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="B554" sqref="B554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27631,18 +27631,26 @@
         <v>610</v>
       </c>
     </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B554" t="s">
+        <v>2924</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B554" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}"/>
+  <autoFilter ref="A1:A553" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29171,6 +29179,14 @@
         <v>3394</v>
       </c>
     </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B191" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:B189" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29181,7 +29197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716ADC0-6E42-9D4D-83DC-88C472B153C8}">
   <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38BB167-B32F-1044-91BB-75937F78F022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100BD34C-47DD-884D-B59D-C590583EDFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="740" windowWidth="16920" windowHeight="18380" activeTab="4" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="4100" yWindow="740" windowWidth="25300" windowHeight="18380" activeTab="2" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5963" uniqueCount="3410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5971" uniqueCount="3416">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -7281,9 +7281,6 @@
     <t>xanthidium antilopaeum</t>
   </si>
   <si>
-    <t>pseudencentrum</t>
-  </si>
-  <si>
     <t>ptygura melicerta</t>
   </si>
   <si>
@@ -10282,6 +10279,27 @@
   </si>
   <si>
     <t>Gastropidae</t>
+  </si>
+  <si>
+    <t>Amphipoda</t>
+  </si>
+  <si>
+    <t>Euglenida</t>
+  </si>
+  <si>
+    <t>Sida (genus in Opisthokonta)</t>
+  </si>
+  <si>
+    <t>Sididae</t>
+  </si>
+  <si>
+    <t>Diplostraca</t>
+  </si>
+  <si>
+    <t>eunotia incisa incisa</t>
+  </si>
+  <si>
+    <t>Pseudocentrum</t>
   </si>
 </sst>
 </file>
@@ -11799,15 +11817,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B138" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="B139" t="s">
         <v>1190</v>
@@ -11815,39 +11833,39 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B140" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="B141" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="B142" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="B143" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="B144" t="s">
         <v>684</v>
@@ -11855,23 +11873,23 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B145" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B146" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B147" t="s">
         <v>161</v>
@@ -11879,7 +11897,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="B148" t="s">
         <v>161</v>
@@ -11887,7 +11905,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="B149" t="s">
         <v>161</v>
@@ -11895,7 +11913,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="B150" t="s">
         <v>161</v>
@@ -11903,7 +11921,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="B151" t="s">
         <v>161</v>
@@ -11911,7 +11929,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="B152" t="s">
         <v>161</v>
@@ -15331,7 +15349,7 @@
         <v>1534</v>
       </c>
       <c r="B309" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C309" t="s">
         <v>9</v>
@@ -15342,7 +15360,7 @@
         <v>1535</v>
       </c>
       <c r="B310" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C310" t="s">
         <v>9</v>
@@ -15353,7 +15371,7 @@
         <v>1536</v>
       </c>
       <c r="B311" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C311" t="s">
         <v>9</v>
@@ -15364,7 +15382,7 @@
         <v>1537</v>
       </c>
       <c r="B312" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C312" t="s">
         <v>9</v>
@@ -15375,7 +15393,7 @@
         <v>1538</v>
       </c>
       <c r="B313" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C313" t="s">
         <v>9</v>
@@ -15386,7 +15404,7 @@
         <v>1539</v>
       </c>
       <c r="B314" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C314" t="s">
         <v>9</v>
@@ -15397,7 +15415,7 @@
         <v>1540</v>
       </c>
       <c r="B315" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C315" t="s">
         <v>9</v>
@@ -15408,7 +15426,7 @@
         <v>1541</v>
       </c>
       <c r="B316" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C316" t="s">
         <v>9</v>
@@ -15419,7 +15437,7 @@
         <v>1542</v>
       </c>
       <c r="B317" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C317" t="s">
         <v>9</v>
@@ -15430,7 +15448,7 @@
         <v>1543</v>
       </c>
       <c r="B318" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C318" t="s">
         <v>9</v>
@@ -15441,7 +15459,7 @@
         <v>1544</v>
       </c>
       <c r="B319" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C319" t="s">
         <v>9</v>
@@ -15452,7 +15470,7 @@
         <v>1545</v>
       </c>
       <c r="B320" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C320" t="s">
         <v>9</v>
@@ -15463,7 +15481,7 @@
         <v>1546</v>
       </c>
       <c r="B321" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C321" t="s">
         <v>9</v>
@@ -15474,7 +15492,7 @@
         <v>1547</v>
       </c>
       <c r="B322" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C322" t="s">
         <v>9</v>
@@ -18928,7 +18946,7 @@
         <v>1409</v>
       </c>
       <c r="B636" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C636" t="s">
         <v>9</v>
@@ -19255,10 +19273,10 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B666" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C666" t="s">
         <v>9</v>
@@ -19271,10 +19289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CDAB4C-F5FA-4849-9657-ED9D68F63DEF}">
-  <dimension ref="A1:B488"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="D478" sqref="D478"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19285,10 +19303,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B1" t="s">
         <v>2708</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2709</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -20021,10 +20039,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B93" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -20037,7 +20055,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B95" t="s">
         <v>2220</v>
@@ -20205,10 +20223,10 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B116" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -20653,10 +20671,10 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B172" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -20733,7 +20751,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B182" t="s">
         <v>2288</v>
@@ -20741,7 +20759,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B183" t="s">
         <v>593</v>
@@ -20789,7 +20807,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B189" t="s">
         <v>2294</v>
@@ -20797,7 +20815,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B190" t="s">
         <v>2294</v>
@@ -21008,7 +21026,7 @@
         <v>2149</v>
       </c>
       <c r="B216" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -21021,10 +21039,10 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B218" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -21048,7 +21066,7 @@
         <v>2151</v>
       </c>
       <c r="B221" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -21064,7 +21082,7 @@
         <v>2152</v>
       </c>
       <c r="B223" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -21080,7 +21098,7 @@
         <v>2153</v>
       </c>
       <c r="B225" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -21104,7 +21122,7 @@
         <v>2156</v>
       </c>
       <c r="B228" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -21120,7 +21138,7 @@
         <v>2158</v>
       </c>
       <c r="B230" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -21128,7 +21146,7 @@
         <v>2159</v>
       </c>
       <c r="B231" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -21176,7 +21194,7 @@
         <v>2164</v>
       </c>
       <c r="B237" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -21192,7 +21210,7 @@
         <v>2166</v>
       </c>
       <c r="B239" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -21208,7 +21226,7 @@
         <v>2167</v>
       </c>
       <c r="B241" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -21216,7 +21234,7 @@
         <v>2168</v>
       </c>
       <c r="B242" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -21232,7 +21250,7 @@
         <v>2170</v>
       </c>
       <c r="B244" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -21248,7 +21266,7 @@
         <v>2171</v>
       </c>
       <c r="B246" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -21256,7 +21274,7 @@
         <v>2172</v>
       </c>
       <c r="B247" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -21365,7 +21383,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B261" t="s">
         <v>2326</v>
@@ -21573,7 +21591,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B287" t="s">
         <v>2339</v>
@@ -21757,7 +21775,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B310" t="s">
         <v>2351</v>
@@ -21789,7 +21807,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B314" t="s">
         <v>2355</v>
@@ -21837,7 +21855,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B320" t="s">
         <v>2359</v>
@@ -22317,7 +22335,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B380" t="s">
         <v>506</v>
@@ -22517,7 +22535,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B405" t="s">
         <v>2393</v>
@@ -22541,7 +22559,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B408" t="s">
         <v>2395</v>
@@ -22549,7 +22567,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B409" t="s">
         <v>2396</v>
@@ -22557,7 +22575,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B410" t="s">
         <v>2397</v>
@@ -22696,7 +22714,7 @@
         <v>2104</v>
       </c>
       <c r="B427" t="s">
-        <v>2409</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -22704,7 +22722,7 @@
         <v>2105</v>
       </c>
       <c r="B428" t="s">
-        <v>2409</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -22712,7 +22730,7 @@
         <v>2106</v>
       </c>
       <c r="B429" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -22728,7 +22746,7 @@
         <v>2107</v>
       </c>
       <c r="B431" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -22749,10 +22767,10 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B434" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -22760,7 +22778,7 @@
         <v>2110</v>
       </c>
       <c r="B435" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -22768,7 +22786,7 @@
         <v>2111</v>
       </c>
       <c r="B436" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -22776,7 +22794,7 @@
         <v>2112</v>
       </c>
       <c r="B437" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -22784,7 +22802,7 @@
         <v>2113</v>
       </c>
       <c r="B438" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -22792,7 +22810,7 @@
         <v>2114</v>
       </c>
       <c r="B439" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -22816,7 +22834,7 @@
         <v>2117</v>
       </c>
       <c r="B442" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -22824,7 +22842,7 @@
         <v>2118</v>
       </c>
       <c r="B443" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -22832,7 +22850,7 @@
         <v>2119</v>
       </c>
       <c r="B444" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -22840,7 +22858,7 @@
         <v>2120</v>
       </c>
       <c r="B445" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -22856,7 +22874,7 @@
         <v>2122</v>
       </c>
       <c r="B447" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -22896,7 +22914,7 @@
         <v>2125</v>
       </c>
       <c r="B452" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -22904,7 +22922,7 @@
         <v>2126</v>
       </c>
       <c r="B453" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -22912,7 +22930,7 @@
         <v>2127</v>
       </c>
       <c r="B454" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -22936,20 +22954,20 @@
         <v>2130</v>
       </c>
       <c r="B457" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B458" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B459" t="s">
         <v>678</v>
@@ -22960,7 +22978,7 @@
         <v>2131</v>
       </c>
       <c r="B460" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -22968,7 +22986,7 @@
         <v>2132</v>
       </c>
       <c r="B461" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -22976,15 +22994,15 @@
         <v>2133</v>
       </c>
       <c r="B462" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B463" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -22992,7 +23010,7 @@
         <v>2134</v>
       </c>
       <c r="B464" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -23000,7 +23018,7 @@
         <v>2135</v>
       </c>
       <c r="B465" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -23008,7 +23026,7 @@
         <v>2136</v>
       </c>
       <c r="B466" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -23016,15 +23034,15 @@
         <v>2137</v>
       </c>
       <c r="B467" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B468" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -23032,7 +23050,7 @@
         <v>2138</v>
       </c>
       <c r="B469" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -23040,7 +23058,7 @@
         <v>2139</v>
       </c>
       <c r="B470" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -23048,7 +23066,7 @@
         <v>2140</v>
       </c>
       <c r="B471" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -23056,7 +23074,7 @@
         <v>2141</v>
       </c>
       <c r="B472" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -23064,7 +23082,7 @@
         <v>2142</v>
       </c>
       <c r="B473" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -23080,15 +23098,15 @@
         <v>2144</v>
       </c>
       <c r="B475" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B476" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -23112,7 +23130,7 @@
         <v>2146</v>
       </c>
       <c r="B479" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -23149,15 +23167,15 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B484" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B485" t="s">
         <v>433</v>
@@ -23181,10 +23199,18 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B488" t="s">
         <v>3402</v>
       </c>
-      <c r="B488" t="s">
-        <v>3403</v>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B489" t="s">
+        <v>2999</v>
       </c>
     </row>
   </sheetData>
@@ -23195,10 +23221,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}">
-  <dimension ref="A1:B554"/>
+  <dimension ref="A1:B555"/>
   <sheetViews>
     <sheetView topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="B554" sqref="B554"/>
+      <selection activeCell="B555" sqref="B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23233,10 +23259,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B4" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -23308,12 +23334,12 @@
         <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B14" t="s">
         <v>287</v>
@@ -23321,7 +23347,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B15" t="s">
         <v>267</v>
@@ -23337,7 +23363,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B17" t="s">
         <v>305</v>
@@ -23380,7 +23406,7 @@
         <v>682</v>
       </c>
       <c r="B22" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -23388,7 +23414,7 @@
         <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -23409,10 +23435,10 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="B26" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -23425,7 +23451,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B28" t="s">
         <v>295</v>
@@ -23460,7 +23486,7 @@
         <v>300</v>
       </c>
       <c r="B32" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -23468,7 +23494,7 @@
         <v>320</v>
       </c>
       <c r="B33" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -23484,7 +23510,7 @@
         <v>602</v>
       </c>
       <c r="B35" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -23497,7 +23523,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="B37" t="s">
         <v>176</v>
@@ -23537,10 +23563,10 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B42" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -23564,7 +23590,7 @@
         <v>315</v>
       </c>
       <c r="B45" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -23641,7 +23667,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B55" t="s">
         <v>205</v>
@@ -23716,7 +23742,7 @@
         <v>346</v>
       </c>
       <c r="B64" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -23745,7 +23771,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B68" t="s">
         <v>306</v>
@@ -23801,7 +23827,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B75" t="s">
         <v>208</v>
@@ -23924,7 +23950,7 @@
         <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -23945,7 +23971,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B93" t="s">
         <v>385</v>
@@ -23977,7 +24003,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="B97" t="s">
         <v>390</v>
@@ -23985,7 +24011,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="B98" t="s">
         <v>394</v>
@@ -24009,10 +24035,10 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B101" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -24028,7 +24054,7 @@
         <v>406</v>
       </c>
       <c r="B103" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -24065,15 +24091,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B108" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="B109" t="s">
         <v>419</v>
@@ -24081,7 +24107,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B110" t="s">
         <v>208</v>
@@ -24169,10 +24195,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="B121" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -24217,7 +24243,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B127" t="s">
         <v>481</v>
@@ -24241,7 +24267,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B130" t="s">
         <v>284</v>
@@ -24276,15 +24302,15 @@
         <v>460</v>
       </c>
       <c r="B134" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B135" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -24337,7 +24363,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -24380,7 +24406,7 @@
         <v>645</v>
       </c>
       <c r="B147" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -24417,7 +24443,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="B152" t="s">
         <v>379</v>
@@ -24441,7 +24467,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B155" t="s">
         <v>396</v>
@@ -24457,7 +24483,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="B157" t="s">
         <v>494</v>
@@ -24489,7 +24515,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B161" t="s">
         <v>299</v>
@@ -24497,7 +24523,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B162" t="s">
         <v>309</v>
@@ -24513,7 +24539,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="B164" t="s">
         <v>295</v>
@@ -24529,7 +24555,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="B166" t="s">
         <v>510</v>
@@ -24561,7 +24587,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B170" t="s">
         <v>515</v>
@@ -24585,7 +24611,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B173" t="s">
         <v>467</v>
@@ -24609,7 +24635,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="B176" t="s">
         <v>205</v>
@@ -24676,7 +24702,7 @@
         <v>418</v>
       </c>
       <c r="B184" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -24689,7 +24715,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="B186" t="s">
         <v>385</v>
@@ -24705,10 +24731,10 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B188" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -24729,7 +24755,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="B191" t="s">
         <v>287</v>
@@ -24753,7 +24779,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="B194" t="s">
         <v>619</v>
@@ -24761,10 +24787,10 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="B195" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -24777,7 +24803,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B197" t="s">
         <v>213</v>
@@ -24785,10 +24811,10 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="B198" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -24796,7 +24822,7 @@
         <v>538</v>
       </c>
       <c r="B199" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -24804,7 +24830,7 @@
         <v>539</v>
       </c>
       <c r="B200" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -24817,7 +24843,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="B202" t="s">
         <v>545</v>
@@ -24825,18 +24851,18 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="B203" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B204" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -24852,7 +24878,7 @@
         <v>546</v>
       </c>
       <c r="B206" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -24868,15 +24894,15 @@
         <v>549</v>
       </c>
       <c r="B208" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="B209" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -24884,7 +24910,7 @@
         <v>550</v>
       </c>
       <c r="B210" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -24897,7 +24923,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B212" t="s">
         <v>673</v>
@@ -24905,10 +24931,10 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B213" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -24916,7 +24942,7 @@
         <v>554</v>
       </c>
       <c r="B214" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -24953,10 +24979,10 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="B219" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -24964,7 +24990,7 @@
         <v>559</v>
       </c>
       <c r="B220" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -24988,7 +25014,7 @@
         <v>562</v>
       </c>
       <c r="B223" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -25009,7 +25035,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="B226" t="s">
         <v>673</v>
@@ -25025,7 +25051,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B228" t="s">
         <v>616</v>
@@ -25036,12 +25062,12 @@
         <v>617</v>
       </c>
       <c r="B229" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B230" t="s">
         <v>719</v>
@@ -25057,7 +25083,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="B232" t="s">
         <v>314</v>
@@ -25068,7 +25094,7 @@
         <v>620</v>
       </c>
       <c r="B233" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -25089,7 +25115,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="B236" t="s">
         <v>257</v>
@@ -25140,12 +25166,12 @@
         <v>629</v>
       </c>
       <c r="B242" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="B243" t="s">
         <v>527</v>
@@ -25177,7 +25203,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B247" t="s">
         <v>636</v>
@@ -25201,7 +25227,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B250" t="s">
         <v>458</v>
@@ -25233,7 +25259,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="B254" t="s">
         <v>213</v>
@@ -25249,7 +25275,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="B256" t="s">
         <v>619</v>
@@ -25268,7 +25294,7 @@
         <v>604</v>
       </c>
       <c r="B258" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -25308,23 +25334,23 @@
         <v>191</v>
       </c>
       <c r="B263" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="B264" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B265" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -25332,12 +25358,12 @@
         <v>659</v>
       </c>
       <c r="B266" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="B267" t="s">
         <v>299</v>
@@ -25361,10 +25387,10 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B270" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -25409,26 +25435,26 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="B276" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="B277" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B278" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -25436,39 +25462,39 @@
         <v>661</v>
       </c>
       <c r="B279" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B280" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="B281" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="B282" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="B283" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -25481,39 +25507,39 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B285" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B286" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B287" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B288" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="B289" t="s">
         <v>241</v>
@@ -25521,7 +25547,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B290" t="s">
         <v>244</v>
@@ -25529,10 +25555,10 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="B291" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -25564,7 +25590,7 @@
         <v>301</v>
       </c>
       <c r="B295" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -25588,7 +25614,7 @@
         <v>594</v>
       </c>
       <c r="B298" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -25601,7 +25627,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="B300" t="s">
         <v>448</v>
@@ -25609,7 +25635,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="B301" t="s">
         <v>373</v>
@@ -25625,7 +25651,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="B303" t="s">
         <v>352</v>
@@ -25657,7 +25683,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B307" t="s">
         <v>216</v>
@@ -25681,7 +25707,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B310" t="s">
         <v>224</v>
@@ -25689,10 +25715,10 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B311" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -25724,7 +25750,7 @@
         <v>667</v>
       </c>
       <c r="B315" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -25745,7 +25771,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B318" t="s">
         <v>255</v>
@@ -25753,7 +25779,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B319" t="s">
         <v>487</v>
@@ -25761,7 +25787,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B320" t="s">
         <v>224</v>
@@ -25777,7 +25803,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="B322" t="s">
         <v>224</v>
@@ -25793,7 +25819,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B324" t="s">
         <v>446</v>
@@ -25809,10 +25835,10 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B326" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -25833,7 +25859,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="B329" t="s">
         <v>295</v>
@@ -25857,7 +25883,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B332" t="s">
         <v>267</v>
@@ -25865,7 +25891,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="B333" t="s">
         <v>305</v>
@@ -25876,12 +25902,12 @@
         <v>759</v>
       </c>
       <c r="B334" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B335" t="s">
         <v>239</v>
@@ -25889,7 +25915,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B336" t="s">
         <v>815</v>
@@ -25897,7 +25923,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="B337" t="s">
         <v>737</v>
@@ -25913,7 +25939,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="B339" t="s">
         <v>487</v>
@@ -25937,7 +25963,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B342" t="s">
         <v>719</v>
@@ -25945,7 +25971,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="B343" t="s">
         <v>647</v>
@@ -25953,7 +25979,7 @@
     </row>
     <row r="344" spans="1:2" ht="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="B344" t="s">
         <v>446</v>
@@ -25969,7 +25995,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="B346" t="s">
         <v>839</v>
@@ -25977,26 +26003,26 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B347" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="B348" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="B349" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -26009,7 +26035,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="B351" t="s">
         <v>563</v>
@@ -26017,7 +26043,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B352" t="s">
         <v>221</v>
@@ -26033,10 +26059,10 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B354" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -26057,7 +26083,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B357" t="s">
         <v>818</v>
@@ -26065,39 +26091,39 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B358" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B359" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="B360" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B361" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="B362" t="s">
         <v>680</v>
@@ -26105,23 +26131,23 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="B363" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B364" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B365" t="s">
         <v>818</v>
@@ -26129,10 +26155,10 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="B366" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -26145,10 +26171,10 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B368" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -26161,7 +26187,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="B370" t="s">
         <v>642</v>
@@ -26180,7 +26206,7 @@
         <v>686</v>
       </c>
       <c r="B372" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -26193,7 +26219,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B374" t="s">
         <v>305</v>
@@ -26225,7 +26251,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B378" t="s">
         <v>396</v>
@@ -26244,7 +26270,7 @@
         <v>691</v>
       </c>
       <c r="B380" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -26257,10 +26283,10 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B382" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -26281,10 +26307,10 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B385" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -26297,7 +26323,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B387" t="s">
         <v>697</v>
@@ -26313,7 +26339,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B389" t="s">
         <v>330</v>
@@ -26321,7 +26347,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="B390" t="s">
         <v>600</v>
@@ -26329,7 +26355,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="B391" t="s">
         <v>419</v>
@@ -26337,15 +26363,15 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B392" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="B393" t="s">
         <v>600</v>
@@ -26353,7 +26379,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B394" t="s">
         <v>608</v>
@@ -26361,7 +26387,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="B395" t="s">
         <v>289</v>
@@ -26369,10 +26395,10 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B396" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -26388,15 +26414,15 @@
         <v>710</v>
       </c>
       <c r="B398" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="B399" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -26420,12 +26446,12 @@
         <v>1597</v>
       </c>
       <c r="B402" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="B403" t="s">
         <v>314</v>
@@ -26433,7 +26459,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B404" t="s">
         <v>541</v>
@@ -26457,7 +26483,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="B407" t="s">
         <v>719</v>
@@ -26465,7 +26491,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="B408" t="s">
         <v>314</v>
@@ -26481,7 +26507,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B410" t="s">
         <v>541</v>
@@ -26497,7 +26523,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="B412" t="s">
         <v>269</v>
@@ -26505,7 +26531,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B413" t="s">
         <v>597</v>
@@ -26513,7 +26539,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="B414" t="s">
         <v>613</v>
@@ -26524,12 +26550,12 @@
         <v>729</v>
       </c>
       <c r="B415" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B416" t="s">
         <v>292</v>
@@ -26537,7 +26563,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B417" t="s">
         <v>210</v>
@@ -26545,15 +26571,15 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B418" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B419" t="s">
         <v>205</v>
@@ -26577,10 +26603,10 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B422" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -26601,7 +26627,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B425" t="s">
         <v>737</v>
@@ -26617,7 +26643,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B427" t="s">
         <v>838</v>
@@ -26625,7 +26651,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B428" t="s">
         <v>305</v>
@@ -26641,7 +26667,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="B430" t="s">
         <v>323</v>
@@ -26657,23 +26683,23 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B432" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="B433" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B434" t="s">
         <v>737</v>
@@ -26681,10 +26707,10 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="B435" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -26692,12 +26718,12 @@
         <v>740</v>
       </c>
       <c r="B436" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B437" t="s">
         <v>437</v>
@@ -26705,7 +26731,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B438" t="s">
         <v>210</v>
@@ -26713,10 +26739,10 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="B439" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -26740,12 +26766,12 @@
         <v>746</v>
       </c>
       <c r="B442" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B443" t="s">
         <v>541</v>
@@ -26772,20 +26798,20 @@
         <v>749</v>
       </c>
       <c r="B446" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B447" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B448" t="s">
         <v>470</v>
@@ -26793,15 +26819,15 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B449" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="B450" t="s">
         <v>613</v>
@@ -26812,12 +26838,12 @@
         <v>750</v>
       </c>
       <c r="B451" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B452" t="s">
         <v>314</v>
@@ -26825,7 +26851,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="B453" t="s">
         <v>647</v>
@@ -26841,7 +26867,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B455" t="s">
         <v>287</v>
@@ -26852,7 +26878,7 @@
         <v>751</v>
       </c>
       <c r="B456" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -26865,7 +26891,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="B458" t="s">
         <v>305</v>
@@ -26873,7 +26899,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B459" t="s">
         <v>292</v>
@@ -26881,7 +26907,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B460" t="s">
         <v>368</v>
@@ -26900,7 +26926,7 @@
         <v>756</v>
       </c>
       <c r="B462" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -26913,7 +26939,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B464" t="s">
         <v>299</v>
@@ -26937,15 +26963,15 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B467" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="B468" t="s">
         <v>305</v>
@@ -26969,7 +26995,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B471" t="s">
         <v>719</v>
@@ -26977,10 +27003,10 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="B472" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -27001,7 +27027,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B475" t="s">
         <v>600</v>
@@ -27049,7 +27075,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B481" t="s">
         <v>600</v>
@@ -27057,7 +27083,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="B482" t="s">
         <v>359</v>
@@ -27073,7 +27099,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B484" t="s">
         <v>298</v>
@@ -27081,7 +27107,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B485" t="s">
         <v>446</v>
@@ -27089,7 +27115,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="B486" t="s">
         <v>446</v>
@@ -27121,7 +27147,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B490" t="s">
         <v>205</v>
@@ -27129,18 +27155,18 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B491" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="B492" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -27148,7 +27174,7 @@
         <v>203</v>
       </c>
       <c r="B493" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -27161,7 +27187,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B495" t="s">
         <v>233</v>
@@ -27169,7 +27195,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B496" t="s">
         <v>321</v>
@@ -27185,7 +27211,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B498" t="s">
         <v>299</v>
@@ -27201,10 +27227,10 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="B500" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -27217,7 +27243,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B502" t="s">
         <v>207</v>
@@ -27225,7 +27251,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B503" t="s">
         <v>298</v>
@@ -27233,7 +27259,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B504" t="s">
         <v>266</v>
@@ -27241,7 +27267,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B505" t="s">
         <v>600</v>
@@ -27249,7 +27275,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="B506" t="s">
         <v>314</v>
@@ -27257,7 +27283,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="B507" t="s">
         <v>396</v>
@@ -27276,7 +27302,7 @@
         <v>754</v>
       </c>
       <c r="B509" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -27305,7 +27331,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="B513" t="s">
         <v>205</v>
@@ -27329,15 +27355,15 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B516" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="B517" t="s">
         <v>305</v>
@@ -27353,7 +27379,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B519" t="s">
         <v>299</v>
@@ -27361,15 +27387,15 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B520" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B521" t="s">
         <v>299</v>
@@ -27385,10 +27411,10 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="B523" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -27401,18 +27427,18 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="B525" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B526" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -27428,55 +27454,55 @@
         <v>1760</v>
       </c>
       <c r="B528" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B529" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="B530" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B531" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B532" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B533" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="B534" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -27489,18 +27515,18 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="B536" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="B537" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -27513,87 +27539,87 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="B539" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="B540" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B541" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="B542" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="B543" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="B544" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B545" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="B546" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B547" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B548" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="B549" t="s">
         <v>245</v>
@@ -27601,7 +27627,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B550" t="s">
         <v>2</v>
@@ -27609,7 +27635,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B551" t="s">
         <v>385</v>
@@ -27633,10 +27659,18 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B554" t="s">
         <v>2923</v>
       </c>
-      <c r="B554" t="s">
-        <v>2924</v>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B555" t="s">
+        <v>3412</v>
       </c>
     </row>
   </sheetData>
@@ -27647,10 +27681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D7EC72-1B09-7F46-82E1-09C009C1FA6A}">
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27672,7 +27706,7 @@
         <v>565</v>
       </c>
       <c r="B2" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -27685,7 +27719,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B4" t="s">
         <v>206</v>
@@ -27704,7 +27738,7 @@
         <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -27760,15 +27794,15 @@
         <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B14" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -27781,10 +27815,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="B16" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -27821,7 +27855,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="B21" t="s">
         <v>240</v>
@@ -27901,7 +27935,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B31" t="s">
         <v>347</v>
@@ -27960,7 +27994,7 @@
         <v>470</v>
       </c>
       <c r="B38" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -28064,15 +28098,15 @@
         <v>437</v>
       </c>
       <c r="B51" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B52" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -28109,7 +28143,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B57" t="s">
         <v>206</v>
@@ -28128,7 +28162,7 @@
         <v>535</v>
       </c>
       <c r="B59" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -28157,10 +28191,10 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B63" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -28253,7 +28287,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B75" t="s">
         <v>516</v>
@@ -28269,10 +28303,10 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B77" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -28285,26 +28319,26 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="B79" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B80" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="B81" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -28317,15 +28351,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="B83" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="B84" t="s">
         <v>843</v>
@@ -28357,7 +28391,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B88" t="s">
         <v>488</v>
@@ -28373,18 +28407,18 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="B90" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="B91" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -28408,12 +28442,12 @@
         <v>425</v>
       </c>
       <c r="B94" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="B95" t="s">
         <v>630</v>
@@ -28445,18 +28479,18 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B99" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B100" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -28493,23 +28527,23 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B105" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B106" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B107" t="s">
         <v>206</v>
@@ -28517,7 +28551,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="B108" t="s">
         <v>181</v>
@@ -28525,23 +28559,23 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B109" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="B110" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B111" t="s">
         <v>840</v>
@@ -28549,26 +28583,26 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="B112" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B113" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B114" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -28581,7 +28615,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="B116" t="s">
         <v>681</v>
@@ -28589,34 +28623,34 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B117" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="B118" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B119" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="B120" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -28629,18 +28663,18 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B122" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B123" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -28677,10 +28711,10 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B128" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -28701,10 +28735,10 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B131" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -28717,7 +28751,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="B133" t="s">
         <v>462</v>
@@ -28757,7 +28791,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B138" t="s">
         <v>242</v>
@@ -28765,10 +28799,10 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B139" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -28776,7 +28810,7 @@
         <v>818</v>
       </c>
       <c r="B140" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -28784,7 +28818,7 @@
         <v>563</v>
       </c>
       <c r="B141" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -28805,34 +28839,34 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B144" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B145" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B146" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="B147" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -28845,10 +28879,10 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B149" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -28861,7 +28895,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B151" t="s">
         <v>240</v>
@@ -28909,18 +28943,18 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B157" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B158" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -28960,12 +28994,12 @@
         <v>210</v>
       </c>
       <c r="B163" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B164" t="s">
         <v>397</v>
@@ -28973,7 +29007,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="B165" t="s">
         <v>397</v>
@@ -28981,10 +29015,10 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B166" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -28997,7 +29031,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B168" t="s">
         <v>291</v>
@@ -29008,7 +29042,7 @@
         <v>261</v>
       </c>
       <c r="B169" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -29040,12 +29074,12 @@
         <v>446</v>
       </c>
       <c r="B173" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B174" t="s">
         <v>234</v>
@@ -29053,7 +29087,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="B175" t="s">
         <v>206</v>
@@ -29061,7 +29095,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B176" t="s">
         <v>242</v>
@@ -29069,18 +29103,18 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B177" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B178" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -29093,58 +29127,58 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B180" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="B181" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B182" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B183" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B184" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="B185" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B186" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -29152,7 +29186,7 @@
         <v>662</v>
       </c>
       <c r="B187" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -29168,7 +29202,7 @@
         <v>636</v>
       </c>
       <c r="B189" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -29176,15 +29210,23 @@
         <v>390</v>
       </c>
       <c r="B190" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B191" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3413</v>
       </c>
     </row>
   </sheetData>
@@ -29195,10 +29237,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716ADC0-6E42-9D4D-83DC-88C472B153C8}">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29208,7 +29250,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -29318,7 +29360,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
@@ -29378,12 +29420,12 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
@@ -29398,7 +29440,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
@@ -29428,7 +29470,7 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
@@ -29448,12 +29490,12 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
@@ -29483,7 +29525,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
@@ -29493,82 +29535,82 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
@@ -29578,7 +29620,7 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
@@ -29593,12 +29635,22 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>3409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>3410</v>
       </c>
     </row>
   </sheetData>
@@ -29621,19 +29673,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1" t="s">
         <v>2913</v>
       </c>
-      <c r="B1" t="s">
-        <v>2914</v>
-      </c>
       <c r="C1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E1" t="s">
         <v>2876</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2877</v>
       </c>
       <c r="F1" t="s">
         <v>157</v>
@@ -29645,33 +29697,33 @@
         <v>159</v>
       </c>
       <c r="I1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="J1" t="s">
         <v>2879</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2880</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2881</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B2" t="s">
         <v>3404</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3405</v>
       </c>
       <c r="C2">
         <v>28980</v>
       </c>
       <c r="D2" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F2" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="G2" t="s">
         <v>231</v>
@@ -29686,15 +29738,15 @@
         <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L2" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B3" t="s">
         <v>505</v>
@@ -29703,10 +29755,10 @@
         <v>836111</v>
       </c>
       <c r="D3" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="G3" t="s">
         <v>299</v>
@@ -29721,10 +29773,10 @@
         <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L3" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
   </sheetData>
@@ -29749,19 +29801,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B1" t="s">
         <v>2913</v>
       </c>
-      <c r="B1" t="s">
-        <v>2914</v>
-      </c>
       <c r="C1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E1" t="s">
         <v>2876</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2877</v>
       </c>
       <c r="F1" t="s">
         <v>157</v>
@@ -29773,42 +29825,42 @@
         <v>159</v>
       </c>
       <c r="I1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="J1" t="s">
         <v>2879</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2880</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2881</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2882</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="B2" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="C2">
         <v>707845</v>
       </c>
       <c r="D2" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E2" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="F2" t="s">
         <v>290</v>
       </c>
       <c r="G2" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="H2" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="I2" t="s">
         <v>80</v>
@@ -29817,30 +29869,30 @@
         <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L2" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="B3" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="C3">
         <v>4016649</v>
       </c>
       <c r="D3" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E3" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="F3" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="G3" t="s">
         <v>287</v>
@@ -29855,33 +29907,33 @@
         <v>182</v>
       </c>
       <c r="K3" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L3" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="B4" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C4">
         <v>5409388</v>
       </c>
       <c r="D4" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E4" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="F4" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="G4" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="H4" t="s">
         <v>86</v>
@@ -29890,30 +29942,30 @@
         <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="K4" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L4" t="s">
         <v>2939</v>
-      </c>
-      <c r="L4" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B5" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C5">
         <v>5362912</v>
       </c>
       <c r="D5" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F5" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="G5" t="s">
         <v>231</v>
@@ -29928,126 +29980,126 @@
         <v>178</v>
       </c>
       <c r="K5" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L5" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="B6" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="C6">
         <v>427000</v>
       </c>
       <c r="D6" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="E6" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="F6" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="G6" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="H6" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="I6" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="J6" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="K6" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L6" t="s">
         <v>2939</v>
-      </c>
-      <c r="L6" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B7" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C7">
         <v>312183</v>
       </c>
       <c r="D7" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F7" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="G7" t="s">
         <v>210</v>
       </c>
       <c r="H7" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="I7" t="s">
         <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="K7" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="L7" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B8" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C8">
         <v>598957</v>
       </c>
       <c r="D8" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E8" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="F8" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="G8" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="H8" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="I8" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="J8" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="K8" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="L8" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B9" t="s">
         <v>497</v>
@@ -30056,54 +30108,54 @@
         <v>150267</v>
       </c>
       <c r="D9" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E9" t="s">
         <v>497</v>
       </c>
       <c r="F9" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="G9" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="H9" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="I9" t="s">
         <v>211</v>
       </c>
       <c r="J9" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="K9" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="L9" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B10" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C10">
         <v>4735204</v>
       </c>
       <c r="D10" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F10" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="G10" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="H10" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -30112,27 +30164,27 @@
         <v>178</v>
       </c>
       <c r="K10" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L10" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B11" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="C11">
         <v>307972</v>
       </c>
       <c r="D11" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F11" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G11" t="s">
         <v>207</v>
@@ -30147,10 +30199,10 @@
         <v>178</v>
       </c>
       <c r="K11" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L11" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -30158,57 +30210,57 @@
         <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="C12">
         <v>4023445</v>
       </c>
       <c r="D12" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E12" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="F12" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="G12" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="H12" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="I12" t="s">
         <v>97</v>
       </c>
       <c r="J12" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="K12" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L12" t="s">
         <v>2939</v>
-      </c>
-      <c r="L12" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B13" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="C13">
         <v>2812112</v>
       </c>
       <c r="D13" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E13" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="F13" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="G13" t="s">
         <v>515</v>
@@ -30220,13 +30272,13 @@
         <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="K13" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L13" t="s">
         <v>2939</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -30234,19 +30286,19 @@
         <v>141</v>
       </c>
       <c r="B14" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="C14">
         <v>5376792</v>
       </c>
       <c r="D14" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E14" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="F14" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="G14" t="s">
         <v>287</v>
@@ -30261,30 +30313,30 @@
         <v>182</v>
       </c>
       <c r="K14" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L14" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="B15" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="C15">
         <v>4016689</v>
       </c>
       <c r="D15" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E15" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="F15" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="G15" t="s">
         <v>287</v>
@@ -30299,27 +30351,27 @@
         <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L15" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="B16" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="C16">
         <v>6388726</v>
       </c>
       <c r="D16" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E16" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="F16" t="s">
         <v>362</v>
@@ -30334,30 +30386,30 @@
         <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="K16" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L16" t="s">
         <v>2939</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="B17" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="C17">
         <v>2818322</v>
       </c>
       <c r="D17" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E17" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="F17" t="s">
         <v>339</v>
@@ -30372,33 +30424,33 @@
         <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="K17" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L17" t="s">
         <v>2939</v>
-      </c>
-      <c r="L17" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="B18" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="C18">
         <v>4016662</v>
       </c>
       <c r="D18" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E18" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="F18" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="G18" t="s">
         <v>287</v>
@@ -30413,10 +30465,10 @@
         <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L18" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -30424,19 +30476,19 @@
         <v>1227</v>
       </c>
       <c r="B19" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="C19">
         <v>5153022</v>
       </c>
       <c r="D19" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E19" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="F19" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="G19" t="s">
         <v>207</v>
@@ -30451,27 +30503,27 @@
         <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L19" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="B20" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="C20">
         <v>4016583</v>
       </c>
       <c r="D20" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E20" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="F20" t="s">
         <v>145</v>
@@ -30489,15 +30541,15 @@
         <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L20" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B21" t="s">
         <v>2338</v>
@@ -30506,16 +30558,16 @@
         <v>4016510</v>
       </c>
       <c r="D21" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E21" t="s">
         <v>2338</v>
       </c>
       <c r="F21" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="G21" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="H21" t="s">
         <v>209</v>
@@ -30524,18 +30576,18 @@
         <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="K21" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L21" t="s">
         <v>2939</v>
-      </c>
-      <c r="L21" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B22" t="s">
         <v>418</v>
@@ -30544,7 +30596,7 @@
         <v>25914</v>
       </c>
       <c r="D22" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F22" t="s">
         <v>418</v>
@@ -30556,36 +30608,36 @@
         <v>420</v>
       </c>
       <c r="I22" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="J22" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="K22" t="s">
+        <v>2938</v>
+      </c>
+      <c r="L22" t="s">
         <v>2939</v>
-      </c>
-      <c r="L22" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B23" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C23">
         <v>7563454</v>
       </c>
       <c r="D23" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F23" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="G23" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="H23" t="s">
         <v>234</v>
@@ -30597,30 +30649,30 @@
         <v>182</v>
       </c>
       <c r="K23" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L23" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B24" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C24">
         <v>7563454</v>
       </c>
       <c r="D24" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F24" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="G24" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="H24" t="s">
         <v>234</v>
@@ -30632,27 +30684,27 @@
         <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L24" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B25" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C25">
         <v>4016804</v>
       </c>
       <c r="D25" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E25" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="F25" t="s">
         <v>270</v>
@@ -30670,27 +30722,27 @@
         <v>182</v>
       </c>
       <c r="K25" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L25" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B26" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="C26">
         <v>447081</v>
       </c>
       <c r="D26" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E26" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="F26" t="s">
         <v>232</v>
@@ -30708,27 +30760,27 @@
         <v>182</v>
       </c>
       <c r="K26" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="L26" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B27" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="C27">
         <v>606326</v>
       </c>
       <c r="D27" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E27" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="F27" t="s">
         <v>696</v>
@@ -30737,71 +30789,71 @@
         <v>636</v>
       </c>
       <c r="H27" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="I27" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="J27" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="K27" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="L27" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="B28" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C28">
         <v>155852</v>
       </c>
       <c r="D28" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F28" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="G28" t="s">
         <v>636</v>
       </c>
       <c r="H28" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="I28" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="J28" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="K28" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="L28" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B29" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="C29">
         <v>6001434</v>
       </c>
       <c r="D29" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F29" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="G29" t="s">
         <v>284</v>
@@ -30816,15 +30868,15 @@
         <v>178</v>
       </c>
       <c r="K29" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L29" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="B30" t="s">
         <v>826</v>
@@ -30833,16 +30885,16 @@
         <v>6000826</v>
       </c>
       <c r="D30" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E30" t="s">
         <v>826</v>
       </c>
       <c r="F30" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G30" t="s">
         <v>2923</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2924</v>
       </c>
       <c r="H30" t="s">
         <v>99</v>
@@ -30854,65 +30906,65 @@
         <v>178</v>
       </c>
       <c r="K30" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L30" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B31" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C31">
         <v>5653993</v>
       </c>
       <c r="D31" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F31" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="G31" t="s">
         <v>616</v>
       </c>
       <c r="H31" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I31" t="s">
         <v>3396</v>
-      </c>
-      <c r="I31" t="s">
-        <v>3397</v>
       </c>
       <c r="J31" t="s">
         <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L31" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B32" t="s">
         <v>3398</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3399</v>
       </c>
       <c r="C32">
         <v>251731</v>
       </c>
       <c r="D32" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F32" t="s">
+        <v>3398</v>
+      </c>
+      <c r="G32" t="s">
         <v>3399</v>
-      </c>
-      <c r="G32" t="s">
-        <v>3400</v>
       </c>
       <c r="H32" t="s">
         <v>189</v>
@@ -30924,27 +30976,27 @@
         <v>178</v>
       </c>
       <c r="K32" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="L32" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="B33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="C33">
         <v>471702</v>
       </c>
       <c r="D33" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="F33" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="G33" t="s">
         <v>221</v>
@@ -30953,16 +31005,16 @@
         <v>220</v>
       </c>
       <c r="I33" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="J33" t="s">
         <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="L33" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
   </sheetData>
@@ -30990,1371 +31042,1371 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2976</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2977</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2978</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2979</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>2983</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>2984</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>2987</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>2988</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>2989</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2990</v>
-      </c>
       <c r="C10" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>2992</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2993</v>
-      </c>
       <c r="C12" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>2994</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2995</v>
-      </c>
       <c r="C13" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>2997</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>2998</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>3001</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>3002</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>3003</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>3004</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>3005</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>3006</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>3007</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>3008</v>
-      </c>
       <c r="C21" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>3011</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>3012</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>3013</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>3014</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>3015</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>3015</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>3016</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>235</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>3034</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>3035</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>3038</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>3039</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>3041</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>3042</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>3044</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>3045</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>3046</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>3047</v>
-      </c>
       <c r="C52" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>3053</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>3054</v>
-      </c>
       <c r="C58" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>3055</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>3056</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>3057</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>3058</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>3059</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>3060</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>3061</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>3062</v>
-      </c>
       <c r="C63" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>3066</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>3067</v>
-      </c>
       <c r="C68" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>3071</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>3072</v>
-      </c>
       <c r="C72" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>3073</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>3074</v>
-      </c>
       <c r="C73" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>3077</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>3078</v>
-      </c>
       <c r="C76" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>3080</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>3081</v>
-      </c>
       <c r="C78" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>3082</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>3083</v>
-      </c>
       <c r="C79" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>3084</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>3085</v>
-      </c>
       <c r="C80" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>3086</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>3087</v>
-      </c>
       <c r="C81" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>3092</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>3093</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>3094</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>3095</v>
-      </c>
       <c r="C87" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B88" s="5" t="s">
         <v>3096</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>3097</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>3098</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>3099</v>
-      </c>
       <c r="C89" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>3100</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>3101</v>
-      </c>
       <c r="C90" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>3105</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>3106</v>
-      </c>
       <c r="C94" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>133</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>3110</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>3111</v>
-      </c>
       <c r="C98" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>3112</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>3113</v>
-      </c>
       <c r="C99" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>3117</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>3118</v>
-      </c>
       <c r="C103" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>3119</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>3120</v>
-      </c>
       <c r="C104" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>3121</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>3122</v>
-      </c>
       <c r="C105" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>3129</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>3130</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>3131</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>3132</v>
-      </c>
       <c r="C113" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>472</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>3137</v>
       </c>
-      <c r="B118" s="5" t="s">
-        <v>3138</v>
-      </c>
       <c r="C118" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>3144</v>
       </c>
-      <c r="B124" s="5" t="s">
-        <v>3145</v>
-      </c>
       <c r="C124" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B125" s="5" t="s">
         <v>3146</v>
       </c>
-      <c r="B125" s="5" t="s">
-        <v>3147</v>
-      </c>
       <c r="C125" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B128" s="5" t="s">
         <v>3150</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>3151</v>
-      </c>
       <c r="C128" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B131" s="5" t="s">
         <v>3154</v>
       </c>
-      <c r="B131" s="5" t="s">
-        <v>3155</v>
-      </c>
       <c r="C131" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>3158</v>
+        <v>3157</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -32367,73 +32419,73 @@
         <v>1087</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>3160</v>
+        <v>3159</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>1087</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>3163</v>
+        <v>3162</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -32447,71 +32499,71 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>1087</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>454</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -32521,10 +32573,10 @@
         <v>1429</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -32532,15 +32584,15 @@
         <v>1430</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -32554,466 +32606,466 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B165" s="5" t="s">
         <v>3185</v>
       </c>
-      <c r="B165" s="5" t="s">
-        <v>3186</v>
-      </c>
       <c r="C165" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>3187</v>
       </c>
-      <c r="B166" s="5" t="s">
-        <v>3188</v>
-      </c>
       <c r="C166" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>741</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B169" s="5" t="s">
         <v>3191</v>
       </c>
-      <c r="B169" s="5" t="s">
-        <v>3192</v>
-      </c>
       <c r="C169" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B170" s="5" t="s">
         <v>3193</v>
       </c>
-      <c r="B170" s="5" t="s">
-        <v>3194</v>
-      </c>
       <c r="C170" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B172" s="5" t="s">
         <v>3196</v>
       </c>
-      <c r="B172" s="5" t="s">
-        <v>3197</v>
-      </c>
       <c r="C172" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B173" s="5" t="s">
         <v>3198</v>
       </c>
-      <c r="B173" s="5" t="s">
-        <v>3199</v>
-      </c>
       <c r="C173" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>3200</v>
       </c>
-      <c r="B174" s="5" t="s">
-        <v>3201</v>
-      </c>
       <c r="C174" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>3202</v>
       </c>
-      <c r="B175" s="5" t="s">
-        <v>3203</v>
-      </c>
       <c r="C175" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>3204</v>
       </c>
-      <c r="B176" s="5" t="s">
-        <v>3205</v>
-      </c>
       <c r="C176" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>3207</v>
       </c>
-      <c r="B178" s="5" t="s">
-        <v>3208</v>
-      </c>
       <c r="C178" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B179" s="5" t="s">
         <v>3209</v>
       </c>
-      <c r="B179" s="5" t="s">
-        <v>3210</v>
-      </c>
       <c r="C179" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>2308</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>795</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>3219</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>3220</v>
-      </c>
       <c r="C188" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>3221</v>
       </c>
-      <c r="B189" s="5" t="s">
-        <v>3222</v>
-      </c>
       <c r="C189" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B191" s="5" t="s">
         <v>3224</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>3225</v>
-      </c>
       <c r="C191" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B192" s="5" t="s">
         <v>3226</v>
       </c>
-      <c r="B192" s="5" t="s">
-        <v>3227</v>
-      </c>
       <c r="C192" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>3228</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>3229</v>
-      </c>
       <c r="C193" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>3230</v>
       </c>
-      <c r="B194" s="5" t="s">
-        <v>3231</v>
-      </c>
       <c r="C194" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>405</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>3233</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>3234</v>
-      </c>
       <c r="C196" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>3236</v>
       </c>
-      <c r="B198" s="5" t="s">
-        <v>3237</v>
-      </c>
       <c r="C198" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B199" s="5" t="s">
         <v>3238</v>
       </c>
-      <c r="B199" s="5" t="s">
-        <v>3239</v>
-      </c>
       <c r="C199" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B200" s="5" t="s">
         <v>3240</v>
       </c>
-      <c r="B200" s="5" t="s">
-        <v>3241</v>
-      </c>
       <c r="C200" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>3242</v>
       </c>
-      <c r="B201" s="5" t="s">
-        <v>3243</v>
-      </c>
       <c r="C201" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>3246</v>
       </c>
-      <c r="B204" s="5" t="s">
-        <v>3247</v>
-      </c>
       <c r="C204" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>3248</v>
       </c>
-      <c r="B205" s="5" t="s">
-        <v>3249</v>
-      </c>
       <c r="C205" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -33024,7 +33076,7 @@
         <v>762</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -33035,554 +33087,554 @@
         <v>762</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B209" s="5" t="s">
         <v>3251</v>
       </c>
-      <c r="B209" s="5" t="s">
-        <v>3252</v>
-      </c>
       <c r="C209" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>3254</v>
       </c>
-      <c r="B211" s="5" t="s">
-        <v>3255</v>
-      </c>
       <c r="C211" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B212" s="5" t="s">
         <v>3256</v>
       </c>
-      <c r="B212" s="5" t="s">
-        <v>3257</v>
-      </c>
       <c r="C212" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B213" s="5" t="s">
         <v>3258</v>
       </c>
-      <c r="B213" s="5" t="s">
-        <v>3259</v>
-      </c>
       <c r="C213" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B214" s="5" t="s">
         <v>3260</v>
       </c>
-      <c r="B214" s="5" t="s">
-        <v>3261</v>
-      </c>
       <c r="C214" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B215" s="5" t="s">
         <v>3262</v>
       </c>
-      <c r="B215" s="5" t="s">
-        <v>3263</v>
-      </c>
       <c r="C215" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>3264</v>
       </c>
-      <c r="B216" s="5" t="s">
-        <v>3265</v>
-      </c>
       <c r="C216" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>3266</v>
       </c>
-      <c r="B217" s="5" t="s">
-        <v>3267</v>
-      </c>
       <c r="C217" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B218" s="5" t="s">
         <v>3268</v>
       </c>
-      <c r="B218" s="5" t="s">
-        <v>3269</v>
-      </c>
       <c r="C218" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B219" s="5" t="s">
         <v>3270</v>
       </c>
-      <c r="B219" s="5" t="s">
-        <v>3271</v>
-      </c>
       <c r="C219" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B220" s="5" t="s">
         <v>3272</v>
       </c>
-      <c r="B220" s="5" t="s">
-        <v>3273</v>
-      </c>
       <c r="C220" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B221" s="5" t="s">
         <v>3274</v>
       </c>
-      <c r="B221" s="5" t="s">
-        <v>3275</v>
-      </c>
       <c r="C221" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>3277</v>
       </c>
-      <c r="B223" s="5" t="s">
-        <v>3278</v>
-      </c>
       <c r="C223" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>3279</v>
       </c>
-      <c r="B224" s="5" t="s">
-        <v>3280</v>
-      </c>
       <c r="C224" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B225" s="5" t="s">
         <v>3281</v>
       </c>
-      <c r="B225" s="5" t="s">
-        <v>3282</v>
-      </c>
       <c r="C225" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>3283</v>
       </c>
-      <c r="B226" s="5" t="s">
-        <v>3284</v>
-      </c>
       <c r="C226" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B227" s="5" t="s">
         <v>3285</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>3286</v>
-      </c>
       <c r="C227" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B228" s="5" t="s">
         <v>3287</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>3288</v>
-      </c>
       <c r="C228" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B229" s="5" t="s">
         <v>3289</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>3290</v>
-      </c>
       <c r="C229" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B230" s="5" t="s">
         <v>3291</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>3292</v>
-      </c>
       <c r="C230" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B231" s="5" t="s">
         <v>3293</v>
       </c>
-      <c r="B231" s="5" t="s">
-        <v>3294</v>
-      </c>
       <c r="C231" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>3295</v>
       </c>
-      <c r="B232" s="5" t="s">
-        <v>3296</v>
-      </c>
       <c r="C232" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>3298</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>3299</v>
-      </c>
       <c r="C234" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B235" s="5" t="s">
         <v>3300</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>3301</v>
-      </c>
       <c r="C235" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B236" s="5" t="s">
         <v>3302</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>3303</v>
-      </c>
       <c r="C236" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B237" s="5" t="s">
         <v>3304</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>3305</v>
-      </c>
       <c r="C237" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B238" s="5" t="s">
         <v>3306</v>
       </c>
-      <c r="B238" s="5" t="s">
-        <v>3307</v>
-      </c>
       <c r="C238" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B239" s="5" t="s">
         <v>3308</v>
       </c>
-      <c r="B239" s="5" t="s">
-        <v>3309</v>
-      </c>
       <c r="C239" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>3316</v>
       </c>
-      <c r="B246" s="5" t="s">
-        <v>3317</v>
-      </c>
       <c r="C246" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B249" s="5" t="s">
         <v>3320</v>
       </c>
-      <c r="B249" s="5" t="s">
-        <v>3321</v>
-      </c>
       <c r="C249" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>3322</v>
       </c>
-      <c r="B250" s="5" t="s">
-        <v>3323</v>
-      </c>
       <c r="C250" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B251" s="5" t="s">
         <v>3324</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>3325</v>
-      </c>
       <c r="C251" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>146</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>3327</v>
       </c>
-      <c r="B253" s="5" t="s">
-        <v>3328</v>
-      </c>
       <c r="C253" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B254" s="5" t="s">
         <v>3329</v>
       </c>
-      <c r="B254" s="5" t="s">
-        <v>3330</v>
-      </c>
       <c r="C254" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>3331</v>
       </c>
-      <c r="B255" s="5" t="s">
-        <v>3332</v>
-      </c>
       <c r="C255" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B256" s="5" t="s">
         <v>3333</v>
       </c>
-      <c r="B256" s="5" t="s">
-        <v>3334</v>
-      </c>
       <c r="C256" s="5" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B257" s="5" t="s">
         <v>3335</v>
       </c>
-      <c r="B257" s="5" t="s">
-        <v>3336</v>
-      </c>
       <c r="C257" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B258" s="5" t="s">
         <v>3337</v>
       </c>
-      <c r="B258" s="5" t="s">
-        <v>3338</v>
-      </c>
       <c r="C258" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B259" s="5" t="s">
         <v>3339</v>
       </c>
-      <c r="B259" s="5" t="s">
-        <v>3340</v>
-      </c>
       <c r="C259" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>3341</v>
       </c>
-      <c r="B260" s="5" t="s">
-        <v>3342</v>
-      </c>
       <c r="C260" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -33594,309 +33646,309 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>3343</v>
       </c>
-      <c r="B262" s="5" t="s">
-        <v>3344</v>
-      </c>
       <c r="C262" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B263" s="5" t="s">
         <v>3345</v>
       </c>
-      <c r="B263" s="5" t="s">
-        <v>3346</v>
-      </c>
       <c r="C263" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B264" s="5" t="s">
         <v>3347</v>
       </c>
-      <c r="B264" s="5" t="s">
-        <v>3348</v>
-      </c>
       <c r="C264" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>304</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>3350</v>
       </c>
-      <c r="B266" s="5" t="s">
-        <v>3351</v>
-      </c>
       <c r="C266" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>3353</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>3354</v>
-      </c>
       <c r="C268" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>334</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B273" s="5" t="s">
         <v>3359</v>
       </c>
-      <c r="B273" s="5" t="s">
-        <v>3360</v>
-      </c>
       <c r="C273" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>3361</v>
       </c>
-      <c r="B274" s="5" t="s">
-        <v>3362</v>
-      </c>
       <c r="C274" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>454</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B276" s="5" t="s">
         <v>3364</v>
       </c>
-      <c r="B276" s="5" t="s">
-        <v>3365</v>
-      </c>
       <c r="C276" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B277" s="5" t="s">
         <v>3366</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>3367</v>
-      </c>
       <c r="C277" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B278" s="5" t="s">
         <v>3368</v>
       </c>
-      <c r="B278" s="5" t="s">
-        <v>3369</v>
-      </c>
       <c r="C278" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B279" s="5" t="s">
         <v>3370</v>
       </c>
-      <c r="B279" s="5" t="s">
-        <v>3371</v>
-      </c>
       <c r="C279" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B280" s="5" t="s">
         <v>3372</v>
       </c>
-      <c r="B280" s="5" t="s">
-        <v>3373</v>
-      </c>
       <c r="C280" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B281" s="5" t="s">
         <v>3374</v>
       </c>
-      <c r="B281" s="5" t="s">
-        <v>3375</v>
-      </c>
       <c r="C281" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B282" s="5" t="s">
         <v>3376</v>
       </c>
-      <c r="B282" s="5" t="s">
-        <v>3377</v>
-      </c>
       <c r="C282" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B283" s="5" t="s">
         <v>3378</v>
       </c>
-      <c r="B283" s="5" t="s">
-        <v>3379</v>
-      </c>
       <c r="C283" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B284" s="5" t="s">
         <v>3380</v>
       </c>
-      <c r="B284" s="5" t="s">
-        <v>3381</v>
-      </c>
       <c r="C284" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>3382</v>
       </c>
-      <c r="B285" s="5" t="s">
-        <v>3383</v>
-      </c>
       <c r="C285" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B286" s="5" t="s">
         <v>3384</v>
       </c>
-      <c r="B286" s="5" t="s">
-        <v>3385</v>
-      </c>
       <c r="C286" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B287" s="5" t="s">
         <v>3386</v>
       </c>
-      <c r="B287" s="5" t="s">
-        <v>3387</v>
-      </c>
       <c r="C287" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B289" s="5" t="s">
         <v>3389</v>
       </c>
-      <c r="B289" s="5" t="s">
-        <v>3390</v>
-      </c>
       <c r="C289" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B290" s="5" t="s">
         <v>3391</v>
       </c>
-      <c r="B290" s="5" t="s">
-        <v>3392</v>
-      </c>
       <c r="C290" s="5" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_data/manual_taxonomy.xlsx
+++ b/Raw_data/manual_taxonomy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bop22abs/Documents/PhD/Chapter_1_code/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100BD34C-47DD-884D-B59D-C590583EDFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F5071E-E364-B540-B7D4-0719715636F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="740" windowWidth="25300" windowHeight="18380" activeTab="2" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
+    <workbookView xWindow="4100" yWindow="740" windowWidth="25300" windowHeight="18380" activeTab="3" xr2:uid="{871A196B-DDDF-3A4F-9D63-58F84D4139DF}"/>
   </bookViews>
   <sheets>
     <sheet name="special_characters" sheetId="33" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5971" uniqueCount="3416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5972" uniqueCount="3416">
   <si>
     <t>original.taxa.name</t>
   </si>
@@ -19291,8 +19291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CDAB4C-F5FA-4849-9657-ED9D68F63DEF}">
   <dimension ref="A1:B489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="D424" sqref="D424"/>
+    <sheetView topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23221,10 +23221,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D62748D-0C36-F54F-B414-4585403A25D9}">
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B556"/>
   <sheetViews>
-    <sheetView topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="B555" sqref="B555"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="A556" sqref="A556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27671,6 +27671,11 @@
       </c>
       <c r="B555" t="s">
         <v>3412</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>3415</v>
       </c>
     </row>
   </sheetData>
